--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1914,7 +1914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B411" sqref="B411:C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1914,7 +1914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B411" sqref="B411:C411"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C416" sqref="B412:C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12031,14 +12031,14 @@
       <c r="C411" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D411" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E411" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F411" s="4" t="s">
-        <v>3</v>
+      <c r="D411" s="4">
+        <v>1</v>
+      </c>
+      <c r="E411" s="4">
+        <v>1</v>
+      </c>
+      <c r="F411" s="4">
+        <v>1</v>
       </c>
       <c r="G411" s="4" t="s">
         <v>3</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1914,7 +1914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1925,7 +1925,7 @@
   <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C416" sqref="B412:C416"/>
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127883B-EE4E-4D76-BA1B-7E535D2AAE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1479,7 +1476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -1914,17 +1911,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
@@ -13834,452 +13831,452 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C13" r:id="rId8"/>
-    <hyperlink ref="C14" r:id="rId9"/>
-    <hyperlink ref="C16" r:id="rId10"/>
-    <hyperlink ref="C17" r:id="rId11"/>
-    <hyperlink ref="C18" r:id="rId12"/>
-    <hyperlink ref="C19" r:id="rId13"/>
-    <hyperlink ref="C20" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C22" r:id="rId16"/>
-    <hyperlink ref="C23" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19"/>
-    <hyperlink ref="C26" r:id="rId20"/>
-    <hyperlink ref="C27" r:id="rId21"/>
-    <hyperlink ref="C28" r:id="rId22"/>
-    <hyperlink ref="C29" r:id="rId23"/>
-    <hyperlink ref="C30" r:id="rId24"/>
-    <hyperlink ref="C31" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C33" r:id="rId27"/>
-    <hyperlink ref="C34" r:id="rId28"/>
-    <hyperlink ref="C35" r:id="rId29"/>
-    <hyperlink ref="C36" r:id="rId30"/>
-    <hyperlink ref="C37" r:id="rId31"/>
-    <hyperlink ref="C38" r:id="rId32"/>
-    <hyperlink ref="C39" r:id="rId33"/>
-    <hyperlink ref="C40" r:id="rId34"/>
-    <hyperlink ref="C41" r:id="rId35"/>
-    <hyperlink ref="C44" r:id="rId36"/>
-    <hyperlink ref="C45" r:id="rId37"/>
-    <hyperlink ref="C46" r:id="rId38"/>
-    <hyperlink ref="C47" r:id="rId39"/>
-    <hyperlink ref="C48" r:id="rId40"/>
-    <hyperlink ref="C49" r:id="rId41"/>
-    <hyperlink ref="C50" r:id="rId42"/>
-    <hyperlink ref="C51" r:id="rId43"/>
-    <hyperlink ref="C52" r:id="rId44"/>
-    <hyperlink ref="C53" r:id="rId45"/>
-    <hyperlink ref="C56" r:id="rId46"/>
-    <hyperlink ref="C57" r:id="rId47"/>
-    <hyperlink ref="C58" r:id="rId48"/>
-    <hyperlink ref="C60" r:id="rId49"/>
-    <hyperlink ref="C61" r:id="rId50"/>
-    <hyperlink ref="C62" r:id="rId51"/>
-    <hyperlink ref="C63" r:id="rId52"/>
-    <hyperlink ref="C65" r:id="rId53"/>
-    <hyperlink ref="C67" r:id="rId54"/>
-    <hyperlink ref="C68" r:id="rId55"/>
-    <hyperlink ref="C69" r:id="rId56"/>
-    <hyperlink ref="C70" r:id="rId57"/>
-    <hyperlink ref="C71" r:id="rId58"/>
-    <hyperlink ref="C72" r:id="rId59"/>
-    <hyperlink ref="C73" r:id="rId60"/>
-    <hyperlink ref="C74" r:id="rId61"/>
-    <hyperlink ref="C75" r:id="rId62"/>
-    <hyperlink ref="C76" r:id="rId63"/>
-    <hyperlink ref="C77" r:id="rId64"/>
-    <hyperlink ref="C78" r:id="rId65"/>
-    <hyperlink ref="C79" r:id="rId66"/>
-    <hyperlink ref="C80" r:id="rId67"/>
-    <hyperlink ref="C81" r:id="rId68"/>
-    <hyperlink ref="C82" r:id="rId69"/>
-    <hyperlink ref="C83" r:id="rId70"/>
-    <hyperlink ref="C84" r:id="rId71"/>
-    <hyperlink ref="C85" r:id="rId72"/>
-    <hyperlink ref="C86" r:id="rId73"/>
-    <hyperlink ref="C87" r:id="rId74"/>
-    <hyperlink ref="C88" r:id="rId75"/>
-    <hyperlink ref="C89" r:id="rId76"/>
-    <hyperlink ref="C90" r:id="rId77"/>
-    <hyperlink ref="C91" r:id="rId78"/>
-    <hyperlink ref="C92" r:id="rId79"/>
-    <hyperlink ref="C93" r:id="rId80"/>
-    <hyperlink ref="C94" r:id="rId81"/>
-    <hyperlink ref="C95" r:id="rId82"/>
-    <hyperlink ref="C96" r:id="rId83"/>
-    <hyperlink ref="C97" r:id="rId84"/>
-    <hyperlink ref="C98" r:id="rId85"/>
-    <hyperlink ref="C101" r:id="rId86"/>
-    <hyperlink ref="C102" r:id="rId87"/>
-    <hyperlink ref="C103" r:id="rId88"/>
-    <hyperlink ref="C104" r:id="rId89"/>
-    <hyperlink ref="C106" r:id="rId90" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="C107" r:id="rId91"/>
-    <hyperlink ref="C108" r:id="rId92"/>
-    <hyperlink ref="C109" r:id="rId93"/>
-    <hyperlink ref="C110" r:id="rId94"/>
-    <hyperlink ref="C111" r:id="rId95"/>
-    <hyperlink ref="C113" r:id="rId96"/>
-    <hyperlink ref="C114" r:id="rId97"/>
-    <hyperlink ref="C115" r:id="rId98"/>
-    <hyperlink ref="C116" r:id="rId99"/>
-    <hyperlink ref="C117" r:id="rId100"/>
-    <hyperlink ref="C118" r:id="rId101"/>
-    <hyperlink ref="C119" r:id="rId102"/>
-    <hyperlink ref="C120" r:id="rId103"/>
-    <hyperlink ref="C121" r:id="rId104"/>
-    <hyperlink ref="C122" r:id="rId105"/>
-    <hyperlink ref="C123" r:id="rId106"/>
-    <hyperlink ref="C124" r:id="rId107"/>
-    <hyperlink ref="C125" r:id="rId108"/>
-    <hyperlink ref="C126" r:id="rId109"/>
-    <hyperlink ref="C127" r:id="rId110"/>
-    <hyperlink ref="C128" r:id="rId111"/>
-    <hyperlink ref="C129" r:id="rId112"/>
-    <hyperlink ref="C130" r:id="rId113"/>
-    <hyperlink ref="C131" r:id="rId114"/>
-    <hyperlink ref="C132" r:id="rId115"/>
-    <hyperlink ref="C133" r:id="rId116"/>
-    <hyperlink ref="C134" r:id="rId117"/>
-    <hyperlink ref="C135" r:id="rId118"/>
-    <hyperlink ref="C136" r:id="rId119"/>
-    <hyperlink ref="C105" r:id="rId120"/>
-    <hyperlink ref="C112" r:id="rId121"/>
-    <hyperlink ref="C139" r:id="rId122"/>
-    <hyperlink ref="C140" r:id="rId123"/>
-    <hyperlink ref="C141" r:id="rId124"/>
-    <hyperlink ref="C142" r:id="rId125"/>
-    <hyperlink ref="C143" r:id="rId126"/>
-    <hyperlink ref="C144" r:id="rId127"/>
-    <hyperlink ref="C145" r:id="rId128"/>
-    <hyperlink ref="C146" r:id="rId129"/>
-    <hyperlink ref="C147" r:id="rId130"/>
-    <hyperlink ref="C148" r:id="rId131"/>
-    <hyperlink ref="C149" r:id="rId132"/>
-    <hyperlink ref="C150" r:id="rId133"/>
-    <hyperlink ref="C151" r:id="rId134"/>
-    <hyperlink ref="C152" r:id="rId135"/>
-    <hyperlink ref="C153" r:id="rId136"/>
-    <hyperlink ref="C154" r:id="rId137"/>
-    <hyperlink ref="C155" r:id="rId138"/>
-    <hyperlink ref="C156" r:id="rId139"/>
-    <hyperlink ref="C157" r:id="rId140"/>
-    <hyperlink ref="C158" r:id="rId141"/>
-    <hyperlink ref="C159" r:id="rId142"/>
-    <hyperlink ref="C160" r:id="rId143"/>
-    <hyperlink ref="C161" r:id="rId144"/>
-    <hyperlink ref="C162" r:id="rId145"/>
-    <hyperlink ref="C163" r:id="rId146"/>
-    <hyperlink ref="C166" r:id="rId147"/>
-    <hyperlink ref="C167" r:id="rId148"/>
-    <hyperlink ref="C168" r:id="rId149"/>
-    <hyperlink ref="C169" r:id="rId150"/>
-    <hyperlink ref="C170" r:id="rId151"/>
-    <hyperlink ref="C171" r:id="rId152"/>
-    <hyperlink ref="C172" r:id="rId153"/>
-    <hyperlink ref="C173" r:id="rId154"/>
-    <hyperlink ref="C174" r:id="rId155"/>
-    <hyperlink ref="C177" r:id="rId156"/>
-    <hyperlink ref="C178" r:id="rId157"/>
-    <hyperlink ref="C179" r:id="rId158"/>
-    <hyperlink ref="C180" r:id="rId159"/>
-    <hyperlink ref="C181" r:id="rId160"/>
-    <hyperlink ref="C182" r:id="rId161"/>
-    <hyperlink ref="C183" r:id="rId162"/>
-    <hyperlink ref="C184" r:id="rId163"/>
-    <hyperlink ref="C185" r:id="rId164"/>
-    <hyperlink ref="C186" r:id="rId165"/>
-    <hyperlink ref="C187" r:id="rId166"/>
-    <hyperlink ref="C188" r:id="rId167"/>
-    <hyperlink ref="C189" r:id="rId168"/>
-    <hyperlink ref="C190" r:id="rId169"/>
-    <hyperlink ref="C191" r:id="rId170"/>
-    <hyperlink ref="C192" r:id="rId171"/>
-    <hyperlink ref="C193" r:id="rId172"/>
-    <hyperlink ref="C194" r:id="rId173"/>
-    <hyperlink ref="C195" r:id="rId174"/>
-    <hyperlink ref="C196" r:id="rId175"/>
-    <hyperlink ref="C197" r:id="rId176" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="C198" r:id="rId177"/>
-    <hyperlink ref="C199" r:id="rId178"/>
-    <hyperlink ref="C200" r:id="rId179"/>
-    <hyperlink ref="C201" r:id="rId180"/>
-    <hyperlink ref="C202" r:id="rId181"/>
-    <hyperlink ref="C203" r:id="rId182" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="C204" r:id="rId183"/>
-    <hyperlink ref="C205" r:id="rId184"/>
-    <hyperlink ref="C206" r:id="rId185"/>
-    <hyperlink ref="C207" r:id="rId186"/>
-    <hyperlink ref="C208" r:id="rId187"/>
-    <hyperlink ref="C209" r:id="rId188"/>
-    <hyperlink ref="C210" r:id="rId189"/>
-    <hyperlink ref="C211" r:id="rId190"/>
-    <hyperlink ref="C214" r:id="rId191"/>
-    <hyperlink ref="C215" r:id="rId192"/>
-    <hyperlink ref="C216" r:id="rId193"/>
-    <hyperlink ref="C217" r:id="rId194"/>
-    <hyperlink ref="C218" r:id="rId195"/>
-    <hyperlink ref="C219" r:id="rId196"/>
-    <hyperlink ref="C220" r:id="rId197"/>
-    <hyperlink ref="C221" r:id="rId198"/>
-    <hyperlink ref="C222" r:id="rId199"/>
-    <hyperlink ref="C223" r:id="rId200"/>
-    <hyperlink ref="C224" r:id="rId201"/>
-    <hyperlink ref="C225" r:id="rId202"/>
-    <hyperlink ref="C226" r:id="rId203"/>
-    <hyperlink ref="C227" r:id="rId204"/>
-    <hyperlink ref="C228" r:id="rId205"/>
-    <hyperlink ref="C229" r:id="rId206"/>
-    <hyperlink ref="C230" r:id="rId207"/>
-    <hyperlink ref="C231" r:id="rId208"/>
-    <hyperlink ref="C232" r:id="rId209"/>
-    <hyperlink ref="C233" r:id="rId210"/>
-    <hyperlink ref="C234" r:id="rId211"/>
-    <hyperlink ref="C235" r:id="rId212"/>
-    <hyperlink ref="C238" r:id="rId213"/>
-    <hyperlink ref="C239" r:id="rId214"/>
-    <hyperlink ref="C240" r:id="rId215"/>
-    <hyperlink ref="C241" r:id="rId216"/>
-    <hyperlink ref="C242" r:id="rId217"/>
-    <hyperlink ref="C243" r:id="rId218"/>
-    <hyperlink ref="C244" r:id="rId219"/>
-    <hyperlink ref="C245" r:id="rId220"/>
-    <hyperlink ref="C246" r:id="rId221"/>
-    <hyperlink ref="C247" r:id="rId222"/>
-    <hyperlink ref="C248" r:id="rId223"/>
-    <hyperlink ref="C249" r:id="rId224"/>
-    <hyperlink ref="C250" r:id="rId225"/>
-    <hyperlink ref="C251" r:id="rId226"/>
-    <hyperlink ref="C252" r:id="rId227"/>
-    <hyperlink ref="C253" r:id="rId228"/>
-    <hyperlink ref="C254" r:id="rId229"/>
-    <hyperlink ref="C255" r:id="rId230"/>
-    <hyperlink ref="C256" r:id="rId231"/>
-    <hyperlink ref="C257" r:id="rId232" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="C258" r:id="rId233"/>
-    <hyperlink ref="C259" r:id="rId234"/>
-    <hyperlink ref="C260" r:id="rId235"/>
-    <hyperlink ref="C261" r:id="rId236"/>
-    <hyperlink ref="C262" r:id="rId237"/>
-    <hyperlink ref="C263" r:id="rId238"/>
-    <hyperlink ref="C264" r:id="rId239"/>
-    <hyperlink ref="C265" r:id="rId240"/>
-    <hyperlink ref="C266" r:id="rId241"/>
-    <hyperlink ref="C267" r:id="rId242"/>
-    <hyperlink ref="C268" r:id="rId243"/>
-    <hyperlink ref="C269" r:id="rId244"/>
-    <hyperlink ref="C270" r:id="rId245"/>
-    <hyperlink ref="C271" r:id="rId246"/>
-    <hyperlink ref="C272" r:id="rId247"/>
-    <hyperlink ref="C275" r:id="rId248"/>
-    <hyperlink ref="C276" r:id="rId249"/>
-    <hyperlink ref="C277" r:id="rId250"/>
-    <hyperlink ref="C278" r:id="rId251"/>
-    <hyperlink ref="C279" r:id="rId252"/>
-    <hyperlink ref="C280" r:id="rId253"/>
-    <hyperlink ref="C281" r:id="rId254"/>
-    <hyperlink ref="C282" r:id="rId255"/>
-    <hyperlink ref="C283" r:id="rId256"/>
-    <hyperlink ref="C284" r:id="rId257"/>
-    <hyperlink ref="C285" r:id="rId258"/>
-    <hyperlink ref="C286" r:id="rId259"/>
-    <hyperlink ref="C287" r:id="rId260"/>
-    <hyperlink ref="C288" r:id="rId261"/>
-    <hyperlink ref="C289" r:id="rId262"/>
-    <hyperlink ref="C290" r:id="rId263"/>
-    <hyperlink ref="C291" r:id="rId264"/>
-    <hyperlink ref="C292" r:id="rId265"/>
-    <hyperlink ref="C293" r:id="rId266"/>
-    <hyperlink ref="C296" r:id="rId267"/>
-    <hyperlink ref="C297" r:id="rId268"/>
-    <hyperlink ref="C298" r:id="rId269"/>
-    <hyperlink ref="C299" r:id="rId270"/>
-    <hyperlink ref="C300" r:id="rId271"/>
-    <hyperlink ref="C301" r:id="rId272"/>
-    <hyperlink ref="C302" r:id="rId273"/>
-    <hyperlink ref="C303" r:id="rId274"/>
-    <hyperlink ref="C304" r:id="rId275"/>
-    <hyperlink ref="C305" r:id="rId276"/>
-    <hyperlink ref="C306" r:id="rId277" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="C307" r:id="rId278"/>
-    <hyperlink ref="C308" r:id="rId279"/>
-    <hyperlink ref="C309" r:id="rId280"/>
-    <hyperlink ref="C310" r:id="rId281"/>
-    <hyperlink ref="C311" r:id="rId282"/>
-    <hyperlink ref="C312" r:id="rId283"/>
-    <hyperlink ref="C313" r:id="rId284"/>
-    <hyperlink ref="C315" r:id="rId285"/>
-    <hyperlink ref="C316" r:id="rId286"/>
-    <hyperlink ref="C317" r:id="rId287"/>
-    <hyperlink ref="C318" r:id="rId288"/>
-    <hyperlink ref="C319" r:id="rId289"/>
-    <hyperlink ref="C320" r:id="rId290"/>
-    <hyperlink ref="C321" r:id="rId291"/>
-    <hyperlink ref="C322" r:id="rId292"/>
-    <hyperlink ref="C323" r:id="rId293"/>
-    <hyperlink ref="C324" r:id="rId294"/>
-    <hyperlink ref="C325" r:id="rId295"/>
-    <hyperlink ref="C326" r:id="rId296"/>
-    <hyperlink ref="C327" r:id="rId297"/>
-    <hyperlink ref="C328" r:id="rId298"/>
-    <hyperlink ref="C329" r:id="rId299"/>
-    <hyperlink ref="C330" r:id="rId300"/>
-    <hyperlink ref="C331" r:id="rId301"/>
-    <hyperlink ref="C332" r:id="rId302"/>
-    <hyperlink ref="C333" r:id="rId303"/>
-    <hyperlink ref="C336" r:id="rId304"/>
-    <hyperlink ref="C337" r:id="rId305"/>
-    <hyperlink ref="C338" r:id="rId306"/>
-    <hyperlink ref="C339" r:id="rId307"/>
-    <hyperlink ref="C340" r:id="rId308"/>
-    <hyperlink ref="C341" r:id="rId309"/>
-    <hyperlink ref="C343" r:id="rId310"/>
-    <hyperlink ref="C344" r:id="rId311"/>
-    <hyperlink ref="C345" r:id="rId312"/>
-    <hyperlink ref="C346" r:id="rId313"/>
-    <hyperlink ref="C347" r:id="rId314"/>
-    <hyperlink ref="C348" r:id="rId315"/>
-    <hyperlink ref="C349" r:id="rId316"/>
-    <hyperlink ref="C350" r:id="rId317"/>
-    <hyperlink ref="C351" r:id="rId318"/>
-    <hyperlink ref="C352" r:id="rId319"/>
-    <hyperlink ref="C353" r:id="rId320"/>
-    <hyperlink ref="C357" r:id="rId321"/>
-    <hyperlink ref="C358" r:id="rId322"/>
-    <hyperlink ref="C359" r:id="rId323"/>
-    <hyperlink ref="C360" r:id="rId324"/>
-    <hyperlink ref="C361" r:id="rId325"/>
-    <hyperlink ref="C362" r:id="rId326"/>
-    <hyperlink ref="C363" r:id="rId327"/>
-    <hyperlink ref="C364" r:id="rId328"/>
-    <hyperlink ref="C365" r:id="rId329"/>
-    <hyperlink ref="C366" r:id="rId330"/>
-    <hyperlink ref="C367" r:id="rId331"/>
-    <hyperlink ref="C368" r:id="rId332"/>
-    <hyperlink ref="C369" r:id="rId333"/>
-    <hyperlink ref="C370" r:id="rId334"/>
-    <hyperlink ref="C371" r:id="rId335"/>
-    <hyperlink ref="C372" r:id="rId336"/>
-    <hyperlink ref="C373" r:id="rId337"/>
-    <hyperlink ref="C374" r:id="rId338"/>
-    <hyperlink ref="C375" r:id="rId339"/>
-    <hyperlink ref="C376" r:id="rId340"/>
-    <hyperlink ref="C377" r:id="rId341"/>
-    <hyperlink ref="C378" r:id="rId342"/>
-    <hyperlink ref="C379" r:id="rId343" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="C380" r:id="rId344"/>
-    <hyperlink ref="C381" r:id="rId345"/>
-    <hyperlink ref="C382" r:id="rId346"/>
-    <hyperlink ref="C383" r:id="rId347"/>
-    <hyperlink ref="C384" r:id="rId348"/>
-    <hyperlink ref="C385" r:id="rId349"/>
-    <hyperlink ref="C386" r:id="rId350"/>
-    <hyperlink ref="C387" r:id="rId351"/>
-    <hyperlink ref="C388" r:id="rId352"/>
-    <hyperlink ref="C389" r:id="rId353"/>
-    <hyperlink ref="C390" r:id="rId354"/>
-    <hyperlink ref="C391" r:id="rId355"/>
-    <hyperlink ref="C392" r:id="rId356"/>
-    <hyperlink ref="C393" r:id="rId357"/>
-    <hyperlink ref="C394" r:id="rId358"/>
-    <hyperlink ref="C396" r:id="rId359"/>
-    <hyperlink ref="C395" r:id="rId360"/>
-    <hyperlink ref="C397" r:id="rId361"/>
-    <hyperlink ref="C398" r:id="rId362"/>
-    <hyperlink ref="C399" r:id="rId363"/>
-    <hyperlink ref="C402" r:id="rId364"/>
-    <hyperlink ref="C403" r:id="rId365"/>
-    <hyperlink ref="C404" r:id="rId366"/>
-    <hyperlink ref="C405" r:id="rId367"/>
-    <hyperlink ref="C406" r:id="rId368"/>
-    <hyperlink ref="C407" r:id="rId369"/>
-    <hyperlink ref="C410" r:id="rId370"/>
-    <hyperlink ref="C411" r:id="rId371"/>
-    <hyperlink ref="C412" r:id="rId372"/>
-    <hyperlink ref="C413" r:id="rId373"/>
-    <hyperlink ref="C414" r:id="rId374"/>
-    <hyperlink ref="C415" r:id="rId375"/>
-    <hyperlink ref="C416" r:id="rId376"/>
-    <hyperlink ref="C417" r:id="rId377"/>
-    <hyperlink ref="C418" r:id="rId378"/>
-    <hyperlink ref="C419" r:id="rId379"/>
-    <hyperlink ref="C420" r:id="rId380"/>
-    <hyperlink ref="C421" r:id="rId381"/>
-    <hyperlink ref="C422" r:id="rId382"/>
-    <hyperlink ref="C423" r:id="rId383"/>
-    <hyperlink ref="C424" r:id="rId384"/>
-    <hyperlink ref="C425" r:id="rId385"/>
-    <hyperlink ref="C426" r:id="rId386"/>
-    <hyperlink ref="C427" r:id="rId387"/>
-    <hyperlink ref="C428" r:id="rId388"/>
-    <hyperlink ref="C429" r:id="rId389"/>
-    <hyperlink ref="C430" r:id="rId390"/>
-    <hyperlink ref="C431" r:id="rId391"/>
-    <hyperlink ref="C432" r:id="rId392"/>
-    <hyperlink ref="C433" r:id="rId393"/>
-    <hyperlink ref="C434" r:id="rId394"/>
-    <hyperlink ref="C435" r:id="rId395"/>
-    <hyperlink ref="C436" r:id="rId396"/>
-    <hyperlink ref="C437" r:id="rId397"/>
-    <hyperlink ref="C438" r:id="rId398"/>
-    <hyperlink ref="C439" r:id="rId399"/>
-    <hyperlink ref="C440" r:id="rId400"/>
-    <hyperlink ref="C441" r:id="rId401"/>
-    <hyperlink ref="C442" r:id="rId402"/>
-    <hyperlink ref="C443" r:id="rId403"/>
-    <hyperlink ref="C444" r:id="rId404"/>
-    <hyperlink ref="C445" r:id="rId405"/>
-    <hyperlink ref="C446" r:id="rId406"/>
-    <hyperlink ref="C447" r:id="rId407"/>
-    <hyperlink ref="C448" r:id="rId408"/>
-    <hyperlink ref="C449" r:id="rId409"/>
-    <hyperlink ref="C451" r:id="rId410"/>
-    <hyperlink ref="C450" r:id="rId411"/>
-    <hyperlink ref="C452" r:id="rId412"/>
-    <hyperlink ref="C453" r:id="rId413"/>
-    <hyperlink ref="C454" r:id="rId414"/>
-    <hyperlink ref="C455" r:id="rId415"/>
-    <hyperlink ref="C456" r:id="rId416"/>
-    <hyperlink ref="C457" r:id="rId417"/>
-    <hyperlink ref="C458" r:id="rId418"/>
-    <hyperlink ref="C459" r:id="rId419"/>
-    <hyperlink ref="C460" r:id="rId420"/>
-    <hyperlink ref="C461" r:id="rId421"/>
-    <hyperlink ref="C462" r:id="rId422"/>
-    <hyperlink ref="C469" r:id="rId423"/>
-    <hyperlink ref="C468" r:id="rId424"/>
-    <hyperlink ref="C467" r:id="rId425"/>
-    <hyperlink ref="C466" r:id="rId426"/>
-    <hyperlink ref="C465" r:id="rId427"/>
-    <hyperlink ref="C464" r:id="rId428"/>
-    <hyperlink ref="C463" r:id="rId429"/>
-    <hyperlink ref="C472" r:id="rId430"/>
-    <hyperlink ref="C473" r:id="rId431"/>
-    <hyperlink ref="C474" r:id="rId432"/>
-    <hyperlink ref="C475" r:id="rId433"/>
-    <hyperlink ref="C476" r:id="rId434"/>
-    <hyperlink ref="C477" r:id="rId435"/>
-    <hyperlink ref="C478" r:id="rId436"/>
-    <hyperlink ref="C481" r:id="rId437"/>
-    <hyperlink ref="C479" r:id="rId438"/>
-    <hyperlink ref="C480" r:id="rId439" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="C356" r:id="rId440"/>
-    <hyperlink ref="C2" r:id="rId441"/>
-    <hyperlink ref="C15" r:id="rId442"/>
-    <hyperlink ref="C66" r:id="rId443"/>
-    <hyperlink ref="C64" r:id="rId444"/>
-    <hyperlink ref="C314" r:id="rId445"/>
-    <hyperlink ref="C342" r:id="rId446"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C56" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C58" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C65" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C69" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C70" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C71" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C73" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C75" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C76" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C77" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C78" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C79" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C80" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C81" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C82" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C83" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C84" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C85" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C86" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C89" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C90" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C92" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C93" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C94" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C95" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C96" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C97" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C98" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C101" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C102" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C103" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C104" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C106" r:id="rId90" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C107" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C108" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C109" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C110" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C111" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C113" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C114" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C115" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C116" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C117" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C118" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C119" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C120" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C122" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C123" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C124" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C125" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C126" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C127" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C128" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C129" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C130" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C131" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C132" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C133" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C134" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C135" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C136" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C105" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C112" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C139" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C140" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C141" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C142" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C143" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C144" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C145" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C146" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C147" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C148" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C149" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C150" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C151" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C152" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C153" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C154" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C155" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C156" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C157" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C158" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C159" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C160" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C161" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C162" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C163" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C166" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C167" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C168" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C169" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C170" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C171" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C172" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C173" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C174" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C177" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C178" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C179" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C180" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C181" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C182" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C183" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C184" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C185" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C186" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C187" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C188" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C189" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C190" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C191" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C192" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C193" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C194" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C195" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C196" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C197" r:id="rId176" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C198" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C199" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C200" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C201" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C202" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C203" r:id="rId182" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C204" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C205" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C206" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C207" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C208" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C209" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C210" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C211" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C214" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C215" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C216" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C217" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C218" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C219" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C220" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C221" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C222" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C223" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C224" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C225" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C226" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C227" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C228" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C229" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C230" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C231" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C232" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C233" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C234" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C235" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C238" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C239" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C240" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C241" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C242" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C243" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C244" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C245" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C246" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C247" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C248" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C249" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C250" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C251" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C252" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C253" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C254" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C255" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C256" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C257" r:id="rId232" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C258" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C259" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C260" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C261" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C262" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C263" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C264" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C265" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C266" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C267" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C268" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C269" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C270" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C271" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C272" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C275" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C276" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C277" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C278" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C279" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C280" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C281" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C282" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C283" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C284" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C285" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C286" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C287" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C288" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C289" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C290" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C291" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C292" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C293" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C296" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C297" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C298" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C299" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C300" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C301" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C302" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C303" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C304" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C305" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C306" r:id="rId277" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C307" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C308" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C309" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C310" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C311" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C312" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C313" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C315" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C316" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C317" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C318" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C319" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C320" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C321" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C322" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C323" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C324" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C325" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C326" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C327" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C328" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C329" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C330" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C331" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C332" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C333" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C336" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C337" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C338" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C339" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C340" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C341" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C343" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C344" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C345" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C346" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C347" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C348" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C349" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C350" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C351" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C352" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C353" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C357" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C358" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C359" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C360" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C361" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C362" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C363" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C364" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C365" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C366" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C367" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C368" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C369" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C370" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C371" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C372" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C373" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C374" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C375" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C376" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C377" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C378" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C379" r:id="rId343" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C380" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C381" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C382" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C383" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C384" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C385" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C386" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C387" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C388" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C389" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C390" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C391" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C392" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C393" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C394" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C396" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C395" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C397" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C398" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C399" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C402" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C403" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C404" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C405" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C406" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C407" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C410" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C411" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C412" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C413" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C414" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C415" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C416" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C417" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C418" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C419" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C420" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C421" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C422" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C423" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C424" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C425" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C426" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C427" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C428" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C429" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C430" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C431" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C432" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C433" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C434" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C435" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C436" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C437" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C438" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C439" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C440" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C441" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C442" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C443" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C444" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C445" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C446" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C447" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C448" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C449" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C451" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C450" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C452" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C453" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C454" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C455" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C456" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C457" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C458" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C459" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C460" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C461" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C462" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C469" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C468" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C467" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C466" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C465" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C464" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C463" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C472" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C473" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C474" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C475" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C476" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C477" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C478" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C481" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C479" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C480" r:id="rId439" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C356" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C2" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C15" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C66" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C64" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C314" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C342" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId447"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127883B-EE4E-4D76-BA1B-7E535D2AAE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9256FA2F-5E73-40C3-800A-50BB0B452D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12184,11 +12184,11 @@
       <c r="C417" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D417" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E417" s="4" t="s">
-        <v>3</v>
+      <c r="D417" s="4">
+        <v>1</v>
+      </c>
+      <c r="E417" s="4">
+        <v>1</v>
       </c>
       <c r="F417" s="4" t="s">
         <v>3</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9256FA2F-5E73-40C3-800A-50BB0B452D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C48543-01EB-4ED1-A291-43AFB34C5B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C418" sqref="C418"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C48543-01EB-4ED1-A291-43AFB34C5B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B4BFEE-E433-4FA0-8757-5618C148211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="348" windowWidth="17280" windowHeight="8964" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1665,7 +1665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1717,7 +1717,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C408" sqref="C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12002,15 +12002,11 @@
       <c r="C410" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D410" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E410" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F410" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D410" s="4">
+        <v>1</v>
+      </c>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
       <c r="G410" s="4" t="s">
         <v>3</v>
       </c>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B4BFEE-E433-4FA0-8757-5618C148211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114A8BE1-E362-4958-AAB8-5EC3F8B9990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5736" yWindow="348" windowWidth="17280" windowHeight="8964" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1922,7 +1922,7 @@
   <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A405" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C408" sqref="C408"/>
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114A8BE1-E362-4958-AAB8-5EC3F8B9990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A103FD-19B7-4CBC-B491-15DAA86327DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="348" windowWidth="17280" windowHeight="8964" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1471,6 +1471,9 @@
   </si>
   <si>
     <t>This sheet is taken from</t>
+  </si>
+  <si>
+    <t>more about subsequences in Dynamic DSA.ipynb</t>
   </si>
 </sst>
 </file>
@@ -1919,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C409" sqref="C409"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3440,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="21">
+    <row r="65" spans="1:9" ht="21">
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
@@ -3465,8 +3468,11 @@
       <c r="H65" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="21">
+      <c r="I65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="21">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="21">
+    <row r="67" spans="1:9" ht="21">
       <c r="A67" s="5" t="s">
         <v>52</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="21">
+    <row r="68" spans="1:9" ht="21">
       <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="21">
+    <row r="69" spans="1:9" ht="21">
       <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="21">
+    <row r="70" spans="1:9" ht="21">
       <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="21">
+    <row r="71" spans="1:9" ht="21">
       <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="21">
+    <row r="72" spans="1:9" ht="21">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21">
+    <row r="73" spans="1:9" ht="21">
       <c r="A73" s="5" t="s">
         <v>52</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="21">
+    <row r="74" spans="1:9" ht="21">
       <c r="A74" s="5" t="s">
         <v>52</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="21">
+    <row r="75" spans="1:9" ht="21">
       <c r="A75" s="5" t="s">
         <v>52</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="21">
+    <row r="76" spans="1:9" ht="21">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="21">
+    <row r="77" spans="1:9" ht="21">
       <c r="A77" s="5" t="s">
         <v>52</v>
       </c>
@@ -3778,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="21">
+    <row r="78" spans="1:9" ht="21">
       <c r="A78" s="5" t="s">
         <v>52</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="21">
+    <row r="79" spans="1:9" ht="21">
       <c r="A79" s="5" t="s">
         <v>52</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="21">
+    <row r="80" spans="1:9" ht="21">
       <c r="A80" s="5" t="s">
         <v>52</v>
       </c>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A103FD-19B7-4CBC-B491-15DAA86327DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857F617-BCFB-4830-B9CB-3793E9927662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12342,14 +12342,14 @@
       <c r="C423" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D423" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E423" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F423" s="4" t="s">
-        <v>3</v>
+      <c r="D423" s="4">
+        <v>1</v>
+      </c>
+      <c r="E423" s="4">
+        <v>1</v>
+      </c>
+      <c r="F423" s="4">
+        <v>1</v>
       </c>
       <c r="G423" s="4" t="s">
         <v>3</v>
@@ -12592,7 +12592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="21">
+    <row r="433" spans="1:9" ht="21">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="21">
+    <row r="434" spans="1:9" ht="21">
       <c r="A434" s="5" t="s">
         <v>392</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="21">
+    <row r="435" spans="1:9" ht="21">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="21">
+    <row r="436" spans="1:9" ht="21">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="21">
+    <row r="437" spans="1:9" ht="21">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="21">
+    <row r="438" spans="1:9" ht="21">
       <c r="A438" s="5" t="s">
         <v>392</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="21">
+    <row r="439" spans="1:9" ht="21">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="21">
+    <row r="440" spans="1:9" ht="21">
       <c r="A440" s="5" t="s">
         <v>392</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="21">
+    <row r="441" spans="1:9" ht="21">
       <c r="A441" s="5" t="s">
         <v>392</v>
       </c>
@@ -12810,14 +12810,14 @@
       <c r="C441" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D441" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E441" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F441" s="4" t="s">
-        <v>3</v>
+      <c r="D441" s="4">
+        <v>1</v>
+      </c>
+      <c r="E441" s="4">
+        <v>1</v>
+      </c>
+      <c r="F441" s="4">
+        <v>1</v>
       </c>
       <c r="G441" s="4" t="s">
         <v>3</v>
@@ -12825,8 +12825,9 @@
       <c r="H441" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" ht="21">
+      <c r="I441" s="4"/>
+    </row>
+    <row r="442" spans="1:9" ht="21">
       <c r="A442" s="5" t="s">
         <v>392</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="21">
+    <row r="443" spans="1:9" ht="21">
       <c r="A443" s="5" t="s">
         <v>392</v>
       </c>
@@ -12878,7 +12879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="21">
+    <row r="444" spans="1:9" ht="21">
       <c r="A444" s="5" t="s">
         <v>392</v>
       </c>
@@ -12904,7 +12905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="21">
+    <row r="445" spans="1:9" ht="21">
       <c r="A445" s="5" t="s">
         <v>392</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="21">
+    <row r="446" spans="1:9" ht="21">
       <c r="A446" s="5" t="s">
         <v>392</v>
       </c>
@@ -12956,7 +12957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="21">
+    <row r="447" spans="1:9" ht="21">
       <c r="A447" s="5" t="s">
         <v>392</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="21">
+    <row r="448" spans="1:9" ht="21">
       <c r="A448" s="5" t="s">
         <v>392</v>
       </c>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857F617-BCFB-4830-B9CB-3793E9927662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBCEE47-2203-40A7-85E4-38DF871E1F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C454" sqref="C454"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBCEE47-2203-40A7-85E4-38DF871E1F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685F336-86D8-49A6-9A6C-AA47E2B3D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F449" sqref="F449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -13019,14 +13019,14 @@
       <c r="C449" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D449" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E449" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F449" s="4" t="s">
-        <v>3</v>
+      <c r="D449" s="4">
+        <v>1</v>
+      </c>
+      <c r="E449" s="4">
+        <v>1</v>
+      </c>
+      <c r="F449" s="4">
+        <v>1</v>
       </c>
       <c r="G449" s="4" t="s">
         <v>3</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685F336-86D8-49A6-9A6C-AA47E2B3D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB3571-32C9-4BB9-B3F8-AF0FE0FFE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F449" sqref="F449"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB3571-32C9-4BB9-B3F8-AF0FE0FFE159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E78B48-2514-490B-8FE5-E216E3513E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1925,7 +1925,7 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A401" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C409" sqref="C409"/>
+      <selection activeCell="E415" sqref="E415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12134,11 +12134,11 @@
       <c r="C415" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D415" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E415" s="4" t="s">
-        <v>3</v>
+      <c r="D415" s="4">
+        <v>1</v>
+      </c>
+      <c r="E415" s="4">
+        <v>1</v>
       </c>
       <c r="F415" s="4" t="s">
         <v>3</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E78B48-2514-490B-8FE5-E216E3513E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84032DB-7E4F-449D-965E-966A26BBDD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E415" sqref="E415"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K455" sqref="K455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -13383,14 +13383,14 @@
       <c r="C463" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D463" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E463" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F463" s="4" t="s">
-        <v>3</v>
+      <c r="D463" s="4">
+        <v>1</v>
+      </c>
+      <c r="E463" s="4">
+        <v>1</v>
+      </c>
+      <c r="F463" s="4">
+        <v>1</v>
       </c>
       <c r="G463" s="4" t="s">
         <v>3</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84032DB-7E4F-449D-965E-966A26BBDD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F30D40-1F94-4139-9961-570316F3ADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K455" sqref="K455"/>
+    <sheetView tabSelected="1" topLeftCell="A435" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C440" sqref="C440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F30D40-1F94-4139-9961-570316F3ADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1776F03B-C221-430A-9EED-A06D16DC99B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1925,7 +1925,7 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C440" sqref="C440"/>
+      <selection activeCell="C450" sqref="C450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1776F03B-C221-430A-9EED-A06D16DC99B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC6C24F-6894-48B9-A33F-7FBAAAABA594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C450" sqref="C450"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -12576,14 +12576,14 @@
       <c r="C432" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D432" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E432" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F432" s="4" t="s">
-        <v>3</v>
+      <c r="D432" s="4">
+        <v>1</v>
+      </c>
+      <c r="E432" s="4">
+        <v>1</v>
+      </c>
+      <c r="F432" s="4">
+        <v>1</v>
       </c>
       <c r="G432" s="4" t="s">
         <v>3</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC6C24F-6894-48B9-A33F-7FBAAAABA594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4D1446-9CB8-4295-A435-EB8B6A28410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C431" sqref="C431"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6316,14 +6316,14 @@
       <c r="C180" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>3</v>
+      <c r="D180" s="4">
+        <v>1</v>
+      </c>
+      <c r="E180" s="4">
+        <v>1</v>
+      </c>
+      <c r="F180" s="4">
+        <v>1</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>3</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4D1446-9CB8-4295-A435-EB8B6A28410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3418011C-E036-4B14-9131-4DEF29FCDF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1474,6 +1474,9 @@
   </si>
   <si>
     <t>more about subsequences in Dynamic DSA.ipynb</t>
+  </si>
+  <si>
+    <t>TLE on GFG</t>
   </si>
 </sst>
 </file>
@@ -1924,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -13305,20 +13308,20 @@
       <c r="C460" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D460" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E460" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F460" s="4" t="s">
-        <v>3</v>
+      <c r="D460" s="4">
+        <v>1</v>
+      </c>
+      <c r="E460" s="4">
+        <v>1</v>
+      </c>
+      <c r="F460" s="4">
+        <v>1</v>
       </c>
       <c r="G460" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H460" s="4" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="461" spans="1:8" ht="21">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3418011C-E036-4B14-9131-4DEF29FCDF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C41706E-7DD2-4E0F-B6DF-CCB629EB8555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1456,18 +1456,6 @@
   </si>
   <si>
     <t>LEETCODE</t>
-  </si>
-  <si>
-    <t>M2 read</t>
-  </si>
-  <si>
-    <t>M2 write</t>
-  </si>
-  <si>
-    <t>Method 1</t>
-  </si>
-  <si>
-    <t>Method 2</t>
   </si>
   <si>
     <t>This sheet is taken from</t>
@@ -1629,9 +1617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1669,7 +1657,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1775,7 +1763,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1917,7 +1905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1927,44 +1915,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" customWidth="1"/>
-    <col min="3" max="3" width="102.19921875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="102.25" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.6">
+    <row r="1" spans="1:7" ht="26.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" customHeight="1">
+    <row r="2" spans="1:7" ht="15.6" customHeight="1">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1"/>
+    <row r="4" spans="1:7" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1975,27 +1954,22 @@
         <v>464</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G4" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" customHeight="1">
+      <c r="G4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1">
       <c r="B5" s="12"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="21">
+    </row>
+    <row r="6" spans="1:7" ht="21">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2009,19 +1983,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
         <v>0</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2035,19 +2006,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
         <v>0</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2061,19 +2029,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21">
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -2086,20 +2048,14 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21">
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -2112,20 +2068,14 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21">
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -2138,20 +2088,14 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21">
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2164,20 +2108,14 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21">
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2190,20 +2128,14 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21">
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -2216,20 +2148,14 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21">
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2242,20 +2168,14 @@
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21">
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -2268,20 +2188,14 @@
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21">
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -2294,20 +2208,14 @@
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21">
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -2320,20 +2228,14 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21">
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -2346,20 +2248,14 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21">
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -2372,20 +2268,14 @@
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21">
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -2401,17 +2291,11 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21">
+      <c r="F21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -2424,18 +2308,12 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -2448,20 +2326,14 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21">
+      <c r="F23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2474,18 +2346,12 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
@@ -2498,20 +2364,14 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21">
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2524,18 +2384,12 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -2548,20 +2402,14 @@
       <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21">
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -2574,20 +2422,14 @@
       <c r="D28" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21">
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -2600,20 +2442,14 @@
       <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21">
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -2626,20 +2462,14 @@
       <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21">
+      <c r="E30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -2658,14 +2488,8 @@
       <c r="F31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="21">
+    </row>
+    <row r="32" spans="1:6" ht="21">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -2684,14 +2508,8 @@
       <c r="F32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="21">
+    </row>
+    <row r="33" spans="1:6" ht="21">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2710,14 +2528,8 @@
       <c r="F33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="21">
+    </row>
+    <row r="34" spans="1:6" ht="21">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -2736,14 +2548,8 @@
       <c r="F34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="21">
+    </row>
+    <row r="35" spans="1:6" ht="21">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -2762,14 +2568,8 @@
       <c r="F35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="21">
+    </row>
+    <row r="36" spans="1:6" ht="21">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -2788,14 +2588,8 @@
       <c r="F36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="21">
+    </row>
+    <row r="37" spans="1:6" ht="21">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2814,14 +2608,8 @@
       <c r="F37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="21">
+    </row>
+    <row r="38" spans="1:6" ht="21">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2840,14 +2628,8 @@
       <c r="F38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="21">
+    </row>
+    <row r="39" spans="1:6" ht="21">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
@@ -2866,14 +2648,8 @@
       <c r="F39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="21">
+    </row>
+    <row r="40" spans="1:6" ht="21">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
@@ -2892,14 +2668,8 @@
       <c r="F40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="21">
+    </row>
+    <row r="41" spans="1:6" ht="21">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -2918,31 +2688,21 @@
       <c r="F41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="21">
+    </row>
+    <row r="42" spans="1:6" ht="21">
       <c r="C42" s="7"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="21">
+    </row>
+    <row r="43" spans="1:6" ht="21">
       <c r="A43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="21">
+    </row>
+    <row r="44" spans="1:6" ht="21">
       <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
@@ -2961,14 +2721,8 @@
       <c r="F44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="21">
+    </row>
+    <row r="45" spans="1:6" ht="21">
       <c r="A45" s="8" t="s">
         <v>41</v>
       </c>
@@ -2981,20 +2735,14 @@
       <c r="D45" s="4">
         <v>1</v>
       </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="21">
+      <c r="E45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21">
       <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
@@ -3013,14 +2761,8 @@
       <c r="F46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="21">
+    </row>
+    <row r="47" spans="1:6" ht="21">
       <c r="A47" s="8" t="s">
         <v>41</v>
       </c>
@@ -3033,20 +2775,14 @@
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="21">
+      <c r="F47" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21">
       <c r="A48" s="8" t="s">
         <v>41</v>
       </c>
@@ -3065,14 +2801,8 @@
       <c r="F48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="21">
+    </row>
+    <row r="49" spans="1:6" ht="21">
       <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
@@ -3091,14 +2821,8 @@
       <c r="F49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="21">
+    </row>
+    <row r="50" spans="1:6" ht="21">
       <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
@@ -3117,14 +2841,8 @@
       <c r="F50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="21">
+    </row>
+    <row r="51" spans="1:6" ht="21">
       <c r="A51" s="8" t="s">
         <v>41</v>
       </c>
@@ -3143,14 +2861,8 @@
       <c r="F51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="21">
+    </row>
+    <row r="52" spans="1:6" ht="21">
       <c r="A52" s="8" t="s">
         <v>41</v>
       </c>
@@ -3169,14 +2881,8 @@
       <c r="F52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="21">
+    </row>
+    <row r="53" spans="1:6" ht="21">
       <c r="A53" s="8" t="s">
         <v>41</v>
       </c>
@@ -3195,24 +2901,16 @@
       <c r="F53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.6" customHeight="1"/>
-    <row r="55" spans="1:8" ht="21">
+    </row>
+    <row r="54" spans="1:6" ht="15.6" customHeight="1"/>
+    <row r="55" spans="1:6" ht="21">
       <c r="A55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="21">
+    </row>
+    <row r="56" spans="1:6" ht="21">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -3225,20 +2923,14 @@
       <c r="D56" s="4">
         <v>1</v>
       </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="21">
+      <c r="E56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="21">
       <c r="A57" s="5" t="s">
         <v>52</v>
       </c>
@@ -3251,20 +2943,14 @@
       <c r="D57" s="4">
         <v>1</v>
       </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="21">
+      <c r="E57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="21">
       <c r="A58" s="5" t="s">
         <v>52</v>
       </c>
@@ -3277,20 +2963,14 @@
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="21">
+      <c r="E58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21">
       <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
@@ -3303,20 +2983,14 @@
       <c r="D59" s="4">
         <v>1</v>
       </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="21">
+      <c r="E59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
@@ -3329,20 +3003,14 @@
       <c r="D60" s="4">
         <v>1</v>
       </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="21">
+      <c r="E60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="21">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
@@ -3355,20 +3023,14 @@
       <c r="D61" s="4">
         <v>1</v>
       </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="21">
+      <c r="E61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="21">
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
@@ -3381,20 +3043,14 @@
       <c r="D62" s="4">
         <v>0</v>
       </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="21">
+      <c r="F62" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21">
       <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
@@ -3407,20 +3063,14 @@
       <c r="D63" s="4">
         <v>1</v>
       </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="21">
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="21">
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
@@ -3433,16 +3083,10 @@
       <c r="D64" s="4">
         <v>1</v>
       </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="4" t="s">
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3459,20 +3103,14 @@
       <c r="D65" s="4">
         <v>1</v>
       </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="21">
@@ -3488,16 +3126,10 @@
       <c r="D66" s="4">
         <v>1</v>
       </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3520,12 +3152,6 @@
       <c r="F67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="68" spans="1:9" ht="21">
       <c r="A68" s="5" t="s">
@@ -3546,12 +3172,6 @@
       <c r="F68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="69" spans="1:9" ht="21">
       <c r="A69" s="5" t="s">
@@ -3566,16 +3186,10 @@
       <c r="D69" s="4">
         <v>1</v>
       </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3598,12 +3212,6 @@
       <c r="F70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="71" spans="1:9" ht="21">
       <c r="A71" s="5" t="s">
@@ -3624,12 +3232,6 @@
       <c r="F71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="72" spans="1:9" ht="21">
       <c r="A72" s="5" t="s">
@@ -3650,12 +3252,6 @@
       <c r="F72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="73" spans="1:9" ht="21">
       <c r="A73" s="5" t="s">
@@ -3676,12 +3272,6 @@
       <c r="F73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="74" spans="1:9" ht="21">
       <c r="A74" s="5" t="s">
@@ -3702,12 +3292,6 @@
       <c r="F74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="75" spans="1:9" ht="21">
       <c r="A75" s="5" t="s">
@@ -3728,12 +3312,6 @@
       <c r="F75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="76" spans="1:9" ht="21">
       <c r="A76" s="5" t="s">
@@ -3754,12 +3332,6 @@
       <c r="F76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="77" spans="1:9" ht="21">
       <c r="A77" s="5" t="s">
@@ -3780,12 +3352,6 @@
       <c r="F77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="78" spans="1:9" ht="21">
       <c r="A78" s="5" t="s">
@@ -3806,12 +3372,6 @@
       <c r="F78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="79" spans="1:9" ht="21">
       <c r="A79" s="5" t="s">
@@ -3832,12 +3392,6 @@
       <c r="F79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="80" spans="1:9" ht="21">
       <c r="A80" s="5" t="s">
@@ -3858,14 +3412,8 @@
       <c r="F80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="21">
+    </row>
+    <row r="81" spans="1:6" ht="21">
       <c r="A81" s="5" t="s">
         <v>52</v>
       </c>
@@ -3884,14 +3432,8 @@
       <c r="F81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="21">
+    </row>
+    <row r="82" spans="1:6" ht="21">
       <c r="A82" s="5" t="s">
         <v>52</v>
       </c>
@@ -3910,14 +3452,8 @@
       <c r="F82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="21">
+    </row>
+    <row r="83" spans="1:6" ht="21">
       <c r="A83" s="5" t="s">
         <v>52</v>
       </c>
@@ -3936,14 +3472,8 @@
       <c r="F83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="21">
+    </row>
+    <row r="84" spans="1:6" ht="21">
       <c r="A84" s="5" t="s">
         <v>52</v>
       </c>
@@ -3962,14 +3492,8 @@
       <c r="F84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="21">
+    </row>
+    <row r="85" spans="1:6" ht="21">
       <c r="A85" s="5" t="s">
         <v>52</v>
       </c>
@@ -3988,14 +3512,8 @@
       <c r="F85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="21">
+    </row>
+    <row r="86" spans="1:6" ht="21">
       <c r="A86" s="5" t="s">
         <v>52</v>
       </c>
@@ -4008,20 +3526,14 @@
       <c r="D86" s="4">
         <v>1</v>
       </c>
-      <c r="E86" s="4">
-        <v>1</v>
-      </c>
-      <c r="F86" s="4">
-        <v>1</v>
-      </c>
-      <c r="G86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="21">
+      <c r="F86" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="21">
       <c r="A87" s="5" t="s">
         <v>52</v>
       </c>
@@ -4040,14 +3552,8 @@
       <c r="F87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="21">
+    </row>
+    <row r="88" spans="1:6" ht="21">
       <c r="A88" s="5" t="s">
         <v>52</v>
       </c>
@@ -4066,14 +3572,8 @@
       <c r="F88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="21">
+    </row>
+    <row r="89" spans="1:6" ht="21">
       <c r="A89" s="5" t="s">
         <v>52</v>
       </c>
@@ -4092,14 +3592,8 @@
       <c r="F89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="21">
+    </row>
+    <row r="90" spans="1:6" ht="21">
       <c r="A90" s="5" t="s">
         <v>52</v>
       </c>
@@ -4118,14 +3612,8 @@
       <c r="F90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="21">
+    </row>
+    <row r="91" spans="1:6" ht="21">
       <c r="A91" s="5" t="s">
         <v>52</v>
       </c>
@@ -4144,14 +3632,8 @@
       <c r="F91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="21">
+    </row>
+    <row r="92" spans="1:6" ht="21">
       <c r="A92" s="5" t="s">
         <v>52</v>
       </c>
@@ -4170,14 +3652,8 @@
       <c r="F92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="21">
+    </row>
+    <row r="93" spans="1:6" ht="21">
       <c r="A93" s="5" t="s">
         <v>52</v>
       </c>
@@ -4196,14 +3672,8 @@
       <c r="F93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="21">
+    </row>
+    <row r="94" spans="1:6" ht="21">
       <c r="A94" s="5" t="s">
         <v>52</v>
       </c>
@@ -4222,14 +3692,8 @@
       <c r="F94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="21">
+    </row>
+    <row r="95" spans="1:6" ht="21">
       <c r="A95" s="5" t="s">
         <v>52</v>
       </c>
@@ -4248,14 +3712,8 @@
       <c r="F95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="21">
+    </row>
+    <row r="96" spans="1:6" ht="21">
       <c r="A96" s="5" t="s">
         <v>52</v>
       </c>
@@ -4274,14 +3732,8 @@
       <c r="F96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="21">
+    </row>
+    <row r="97" spans="1:6" ht="21">
       <c r="A97" s="5" t="s">
         <v>52</v>
       </c>
@@ -4300,14 +3752,8 @@
       <c r="F97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="21">
+    </row>
+    <row r="98" spans="1:6" ht="21">
       <c r="A98" s="5" t="s">
         <v>52</v>
       </c>
@@ -4326,24 +3772,16 @@
       <c r="F98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.6" customHeight="1"/>
-    <row r="100" spans="1:8" ht="21">
+    </row>
+    <row r="99" spans="1:6" ht="15.6" customHeight="1"/>
+    <row r="100" spans="1:6" ht="21">
       <c r="A100" s="8"/>
       <c r="C100" s="7"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="1:8" ht="21">
+    </row>
+    <row r="101" spans="1:6" ht="21">
       <c r="A101" s="5" t="s">
         <v>96</v>
       </c>
@@ -4356,20 +3794,14 @@
       <c r="D101" s="4">
         <v>1</v>
       </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0</v>
-      </c>
-      <c r="G101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="21">
+      <c r="F101" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="21">
       <c r="A102" s="5" t="s">
         <v>96</v>
       </c>
@@ -4382,20 +3814,14 @@
       <c r="D102" s="4">
         <v>1</v>
       </c>
-      <c r="E102" s="4">
-        <v>1</v>
-      </c>
-      <c r="F102" s="4">
-        <v>0</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="21">
+      <c r="E102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="21">
       <c r="A103" s="5" t="s">
         <v>96</v>
       </c>
@@ -4408,20 +3834,14 @@
       <c r="D103" s="4">
         <v>1</v>
       </c>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="21">
+      <c r="E103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="21">
       <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
@@ -4434,20 +3854,14 @@
       <c r="D104" s="4">
         <v>1</v>
       </c>
-      <c r="E104" s="4">
-        <v>1</v>
-      </c>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="21">
+      <c r="E104" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="21">
       <c r="A105" s="5" t="s">
         <v>96</v>
       </c>
@@ -4460,20 +3874,14 @@
       <c r="D105" s="4">
         <v>1</v>
       </c>
-      <c r="E105" s="4">
-        <v>1</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="21">
+      <c r="E105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="21">
       <c r="A106" s="5" t="s">
         <v>96</v>
       </c>
@@ -4492,14 +3900,8 @@
       <c r="F106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="21">
+    </row>
+    <row r="107" spans="1:6" ht="21">
       <c r="A107" s="5" t="s">
         <v>96</v>
       </c>
@@ -4512,20 +3914,14 @@
       <c r="D107" s="4">
         <v>1</v>
       </c>
-      <c r="E107" s="4">
-        <v>1</v>
-      </c>
-      <c r="F107" s="4">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="21">
+      <c r="E107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="21">
       <c r="A108" s="5" t="s">
         <v>96</v>
       </c>
@@ -4538,20 +3934,14 @@
       <c r="D108" s="4">
         <v>1</v>
       </c>
-      <c r="E108" s="4">
-        <v>1</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="21">
+      <c r="E108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="21">
       <c r="A109" s="5" t="s">
         <v>96</v>
       </c>
@@ -4564,20 +3954,14 @@
       <c r="D109" s="4">
         <v>0</v>
       </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="21">
+      <c r="E109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="21">
       <c r="A110" s="5" t="s">
         <v>96</v>
       </c>
@@ -4590,20 +3974,14 @@
       <c r="D110" s="4">
         <v>1</v>
       </c>
-      <c r="E110" s="4">
-        <v>0</v>
-      </c>
-      <c r="F110" s="4">
-        <v>0</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="19.8">
+      <c r="E110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="19.5">
       <c r="A111" s="5" t="s">
         <v>96</v>
       </c>
@@ -4616,20 +3994,14 @@
       <c r="D111" s="4">
         <v>1</v>
       </c>
-      <c r="E111" s="4">
-        <v>1</v>
-      </c>
-      <c r="F111" s="4">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="21">
+      <c r="E111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="21">
       <c r="A112" s="5" t="s">
         <v>96</v>
       </c>
@@ -4642,20 +4014,14 @@
       <c r="D112" s="4">
         <v>1</v>
       </c>
-      <c r="E112" s="4">
-        <v>1</v>
-      </c>
-      <c r="F112" s="4">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="21">
+      <c r="E112" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="21">
       <c r="A113" s="5" t="s">
         <v>96</v>
       </c>
@@ -4668,20 +4034,14 @@
       <c r="D113" s="4">
         <v>1</v>
       </c>
-      <c r="E113" s="4">
-        <v>1</v>
+      <c r="E113" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="21">
       <c r="A114" s="5" t="s">
         <v>96</v>
       </c>
@@ -4694,20 +4054,14 @@
       <c r="D114" s="4">
         <v>0</v>
       </c>
-      <c r="E114" s="4">
-        <v>0</v>
-      </c>
-      <c r="F114" s="4">
-        <v>0</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="21">
+      <c r="E114" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="21">
       <c r="A115" s="5" t="s">
         <v>96</v>
       </c>
@@ -4726,14 +4080,8 @@
       <c r="F115" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="21">
+    </row>
+    <row r="116" spans="1:6" ht="21">
       <c r="A116" s="5" t="s">
         <v>96</v>
       </c>
@@ -4752,14 +4100,8 @@
       <c r="F116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="21">
+    </row>
+    <row r="117" spans="1:6" ht="21">
       <c r="A117" s="5" t="s">
         <v>96</v>
       </c>
@@ -4778,14 +4120,8 @@
       <c r="F117" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="21">
+    </row>
+    <row r="118" spans="1:6" ht="21">
       <c r="A118" s="5" t="s">
         <v>96</v>
       </c>
@@ -4804,14 +4140,8 @@
       <c r="F118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="21">
+    </row>
+    <row r="119" spans="1:6" ht="21">
       <c r="A119" s="5" t="s">
         <v>96</v>
       </c>
@@ -4830,14 +4160,8 @@
       <c r="F119" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="21">
+    </row>
+    <row r="120" spans="1:6" ht="21">
       <c r="A120" s="5" t="s">
         <v>96</v>
       </c>
@@ -4856,14 +4180,8 @@
       <c r="F120" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="21">
+    </row>
+    <row r="121" spans="1:6" ht="21">
       <c r="A121" s="5" t="s">
         <v>96</v>
       </c>
@@ -4882,14 +4200,8 @@
       <c r="F121" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="21">
+    </row>
+    <row r="122" spans="1:6" ht="21">
       <c r="A122" s="5" t="s">
         <v>96</v>
       </c>
@@ -4908,14 +4220,8 @@
       <c r="F122" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="21">
+    </row>
+    <row r="123" spans="1:6" ht="21">
       <c r="A123" s="5" t="s">
         <v>96</v>
       </c>
@@ -4934,14 +4240,8 @@
       <c r="F123" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="21">
+    </row>
+    <row r="124" spans="1:6" ht="21">
       <c r="A124" s="5" t="s">
         <v>96</v>
       </c>
@@ -4960,14 +4260,8 @@
       <c r="F124" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="21">
+    </row>
+    <row r="125" spans="1:6" ht="21">
       <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
@@ -4986,14 +4280,8 @@
       <c r="F125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="21">
+    </row>
+    <row r="126" spans="1:6" ht="21">
       <c r="A126" s="5" t="s">
         <v>96</v>
       </c>
@@ -5012,14 +4300,8 @@
       <c r="F126" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="21">
+    </row>
+    <row r="127" spans="1:6" ht="21">
       <c r="A127" s="5" t="s">
         <v>96</v>
       </c>
@@ -5038,14 +4320,8 @@
       <c r="F127" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="21">
+    </row>
+    <row r="128" spans="1:6" ht="21">
       <c r="A128" s="5" t="s">
         <v>96</v>
       </c>
@@ -5064,14 +4340,8 @@
       <c r="F128" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="21">
+    </row>
+    <row r="129" spans="1:6" ht="21">
       <c r="A129" s="5" t="s">
         <v>96</v>
       </c>
@@ -5090,14 +4360,8 @@
       <c r="F129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="21">
+    </row>
+    <row r="130" spans="1:6" ht="21">
       <c r="A130" s="5" t="s">
         <v>96</v>
       </c>
@@ -5116,14 +4380,8 @@
       <c r="F130" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="21">
+    </row>
+    <row r="131" spans="1:6" ht="21">
       <c r="A131" s="5" t="s">
         <v>96</v>
       </c>
@@ -5142,14 +4400,8 @@
       <c r="F131" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="21">
+    </row>
+    <row r="132" spans="1:6" ht="21">
       <c r="A132" s="5" t="s">
         <v>96</v>
       </c>
@@ -5168,14 +4420,8 @@
       <c r="F132" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="21">
+    </row>
+    <row r="133" spans="1:6" ht="21">
       <c r="A133" s="5" t="s">
         <v>96</v>
       </c>
@@ -5194,14 +4440,8 @@
       <c r="F133" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="21">
+    </row>
+    <row r="134" spans="1:6" ht="21">
       <c r="A134" s="5" t="s">
         <v>96</v>
       </c>
@@ -5220,14 +4460,8 @@
       <c r="F134" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="21">
+    </row>
+    <row r="135" spans="1:6" ht="21">
       <c r="A135" s="5" t="s">
         <v>96</v>
       </c>
@@ -5246,14 +4480,8 @@
       <c r="F135" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="21">
+    </row>
+    <row r="136" spans="1:6" ht="21">
       <c r="A136" s="5" t="s">
         <v>96</v>
       </c>
@@ -5272,23 +4500,15 @@
       <c r="F136" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.6" customHeight="1"/>
-    <row r="138" spans="1:8" ht="21">
+    </row>
+    <row r="137" spans="1:6" ht="15.6" customHeight="1"/>
+    <row r="138" spans="1:6" ht="21">
       <c r="C138" s="7"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" ht="21">
+    </row>
+    <row r="139" spans="1:6" ht="21">
       <c r="A139" s="8" t="s">
         <v>133</v>
       </c>
@@ -5301,20 +4521,14 @@
       <c r="D139" s="4">
         <v>1</v>
       </c>
-      <c r="E139" s="4">
-        <v>0</v>
+      <c r="E139" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F139" s="4">
-        <v>0</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H139" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="21">
       <c r="A140" s="8" t="s">
         <v>133</v>
       </c>
@@ -5327,20 +4541,14 @@
       <c r="D140" s="4">
         <v>0</v>
       </c>
-      <c r="E140" s="4">
-        <v>0</v>
-      </c>
-      <c r="F140" s="4">
-        <v>0</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="21">
+      <c r="E140" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="21">
       <c r="A141" s="8" t="s">
         <v>133</v>
       </c>
@@ -5353,20 +4561,14 @@
       <c r="D141" s="4">
         <v>1</v>
       </c>
-      <c r="E141" s="4">
-        <v>1</v>
+      <c r="E141" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F141" s="4">
-        <v>0</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H141" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="21">
       <c r="A142" s="8" t="s">
         <v>133</v>
       </c>
@@ -5379,20 +4581,14 @@
       <c r="D142" s="4">
         <v>1</v>
       </c>
-      <c r="E142" s="4">
-        <v>1</v>
-      </c>
-      <c r="F142" s="4">
-        <v>0</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="21">
+      <c r="E142" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="21">
       <c r="A143" s="8" t="s">
         <v>133</v>
       </c>
@@ -5405,20 +4601,14 @@
       <c r="D143" s="4">
         <v>1</v>
       </c>
-      <c r="E143" s="4">
-        <v>1</v>
+      <c r="E143" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F143" s="4">
-        <v>0</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H143" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="21">
       <c r="A144" s="8" t="s">
         <v>133</v>
       </c>
@@ -5432,19 +4622,13 @@
         <v>1</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="21">
       <c r="A145" s="8" t="s">
         <v>133</v>
       </c>
@@ -5457,20 +4641,14 @@
       <c r="D145" s="4">
         <v>1</v>
       </c>
-      <c r="E145" s="4">
-        <v>1</v>
+      <c r="E145" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F145" s="4">
-        <v>0</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="21">
       <c r="A146" s="8" t="s">
         <v>133</v>
       </c>
@@ -5484,19 +4662,13 @@
         <v>1</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="21">
       <c r="A147" s="8" t="s">
         <v>133</v>
       </c>
@@ -5509,20 +4681,14 @@
       <c r="D147" s="4">
         <v>1</v>
       </c>
-      <c r="E147" s="4">
-        <v>1</v>
-      </c>
-      <c r="F147" s="4">
-        <v>0</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="21">
+      <c r="E147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="21">
       <c r="A148" s="8" t="s">
         <v>133</v>
       </c>
@@ -5535,20 +4701,14 @@
       <c r="D148" s="4">
         <v>1</v>
       </c>
-      <c r="E148" s="4">
-        <v>1</v>
-      </c>
-      <c r="F148" s="4">
-        <v>0</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="21">
+      <c r="E148" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="21">
       <c r="A149" s="8" t="s">
         <v>133</v>
       </c>
@@ -5562,19 +4722,13 @@
         <v>1</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="21">
       <c r="A150" s="8" t="s">
         <v>133</v>
       </c>
@@ -5587,20 +4741,14 @@
       <c r="D150" s="4">
         <v>1</v>
       </c>
-      <c r="E150" s="4">
-        <v>1</v>
+      <c r="E150" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F150" s="4">
-        <v>0</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H150" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="21">
       <c r="A151" s="8" t="s">
         <v>133</v>
       </c>
@@ -5613,18 +4761,12 @@
       <c r="D151" s="4">
         <v>1</v>
       </c>
-      <c r="E151" s="4">
-        <v>0</v>
-      </c>
+      <c r="E151" s="4"/>
       <c r="F151" s="4">
-        <v>0</v>
-      </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="21">
       <c r="A152" s="8" t="s">
         <v>133</v>
       </c>
@@ -5643,14 +4785,8 @@
       <c r="F152" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G152" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="21">
+    </row>
+    <row r="153" spans="1:6" ht="21">
       <c r="A153" s="8" t="s">
         <v>133</v>
       </c>
@@ -5663,20 +4799,14 @@
       <c r="D153" s="4">
         <v>1</v>
       </c>
-      <c r="E153" s="4">
-        <v>1</v>
+      <c r="E153" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
       </c>
-      <c r="G153" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H153" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="21">
+    </row>
+    <row r="154" spans="1:6" ht="21">
       <c r="A154" s="8" t="s">
         <v>133</v>
       </c>
@@ -5689,20 +4819,14 @@
       <c r="D154" s="4">
         <v>1</v>
       </c>
-      <c r="E154" s="4">
-        <v>1</v>
-      </c>
-      <c r="F154" s="4">
-        <v>0</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="21">
+      <c r="E154" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="21">
       <c r="A155" s="8" t="s">
         <v>133</v>
       </c>
@@ -5721,14 +4845,8 @@
       <c r="F155" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G155" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="21">
+    </row>
+    <row r="156" spans="1:6" ht="21">
       <c r="A156" s="8" t="s">
         <v>133</v>
       </c>
@@ -5741,20 +4859,14 @@
       <c r="D156" s="4">
         <v>1</v>
       </c>
-      <c r="E156" s="4">
-        <v>1</v>
+      <c r="E156" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F156" s="4">
-        <v>0</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H156" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="21">
       <c r="A157" s="8" t="s">
         <v>133</v>
       </c>
@@ -5767,20 +4879,14 @@
       <c r="D157" s="4">
         <v>0</v>
       </c>
-      <c r="E157" s="4">
-        <v>0</v>
-      </c>
-      <c r="F157" s="4">
-        <v>0</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="21">
+      <c r="E157" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="21">
       <c r="A158" s="8" t="s">
         <v>133</v>
       </c>
@@ -5793,20 +4899,14 @@
       <c r="D158" s="4">
         <v>1</v>
       </c>
-      <c r="E158" s="4">
-        <v>1</v>
-      </c>
-      <c r="F158" s="4">
-        <v>0</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="21">
+      <c r="E158" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="21">
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
@@ -5819,20 +4919,14 @@
       <c r="D159" s="4">
         <v>1</v>
       </c>
-      <c r="E159" s="4">
-        <v>1</v>
-      </c>
-      <c r="F159" s="4">
-        <v>0</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="21">
+      <c r="E159" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="21">
       <c r="A160" s="8" t="s">
         <v>133</v>
       </c>
@@ -5851,14 +4945,8 @@
       <c r="F160" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G160" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="21">
+    </row>
+    <row r="161" spans="1:6" ht="21">
       <c r="A161" s="8" t="s">
         <v>133</v>
       </c>
@@ -5877,14 +4965,8 @@
       <c r="F161" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="21">
+    </row>
+    <row r="162" spans="1:6" ht="21">
       <c r="A162" s="8" t="s">
         <v>133</v>
       </c>
@@ -5903,14 +4985,8 @@
       <c r="F162" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="21">
+    </row>
+    <row r="163" spans="1:6" ht="21">
       <c r="A163" s="8" t="s">
         <v>133</v>
       </c>
@@ -5929,14 +5005,8 @@
       <c r="F163" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G163" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="21">
+    </row>
+    <row r="164" spans="1:6" ht="21">
       <c r="A164" s="8" t="s">
         <v>133</v>
       </c>
@@ -5955,14 +5025,8 @@
       <c r="F164" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="21">
+    </row>
+    <row r="165" spans="1:6" ht="21">
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
@@ -5981,14 +5045,8 @@
       <c r="F165" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G165" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="21">
+    </row>
+    <row r="166" spans="1:6" ht="21">
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
@@ -6007,14 +5065,8 @@
       <c r="F166" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="21">
+    </row>
+    <row r="167" spans="1:6" ht="21">
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
@@ -6033,14 +5085,8 @@
       <c r="F167" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G167" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="21">
+    </row>
+    <row r="168" spans="1:6" ht="21">
       <c r="A168" s="8" t="s">
         <v>133</v>
       </c>
@@ -6059,14 +5105,8 @@
       <c r="F168" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="21">
+    </row>
+    <row r="169" spans="1:6" ht="21">
       <c r="A169" s="8" t="s">
         <v>133</v>
       </c>
@@ -6085,14 +5125,8 @@
       <c r="F169" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G169" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="21">
+    </row>
+    <row r="170" spans="1:6" ht="21">
       <c r="A170" s="8" t="s">
         <v>133</v>
       </c>
@@ -6111,14 +5145,8 @@
       <c r="F170" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G170" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="21">
+    </row>
+    <row r="171" spans="1:6" ht="21">
       <c r="A171" s="8" t="s">
         <v>133</v>
       </c>
@@ -6137,14 +5165,8 @@
       <c r="F171" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G171" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="21">
+    </row>
+    <row r="172" spans="1:6" ht="21">
       <c r="A172" s="8" t="s">
         <v>133</v>
       </c>
@@ -6163,14 +5185,8 @@
       <c r="F172" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="21">
+    </row>
+    <row r="173" spans="1:6" ht="21">
       <c r="A173" s="8" t="s">
         <v>133</v>
       </c>
@@ -6189,14 +5205,8 @@
       <c r="F173" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G173" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="21">
+    </row>
+    <row r="174" spans="1:6" ht="21">
       <c r="A174" s="8" t="s">
         <v>133</v>
       </c>
@@ -6215,23 +5225,15 @@
       <c r="F174" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G174" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="15.6" customHeight="1"/>
-    <row r="176" spans="1:8" ht="21">
+    </row>
+    <row r="175" spans="1:6" ht="15.6" customHeight="1"/>
+    <row r="176" spans="1:6" ht="21">
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="1:8" ht="21">
+    </row>
+    <row r="177" spans="1:6" ht="21">
       <c r="A177" s="5" t="s">
         <v>170</v>
       </c>
@@ -6244,20 +5246,14 @@
       <c r="D177" s="4">
         <v>1</v>
       </c>
-      <c r="E177" s="4">
-        <v>1</v>
+      <c r="E177" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F177" s="4">
-        <v>0</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H177" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="21">
       <c r="A178" s="5" t="s">
         <v>170</v>
       </c>
@@ -6270,20 +5266,14 @@
       <c r="D178" s="4">
         <v>1</v>
       </c>
-      <c r="E178" s="4">
-        <v>1</v>
+      <c r="E178" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F178" s="4">
-        <v>0</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H178" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="21">
       <c r="A179" s="5" t="s">
         <v>170</v>
       </c>
@@ -6296,20 +5286,14 @@
       <c r="D179" s="4">
         <v>1</v>
       </c>
-      <c r="E179" s="4">
-        <v>1</v>
-      </c>
-      <c r="F179" s="4">
-        <v>1</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="21">
+      <c r="E179" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="21">
       <c r="A180" s="5" t="s">
         <v>170</v>
       </c>
@@ -6322,20 +5306,14 @@
       <c r="D180" s="4">
         <v>1</v>
       </c>
-      <c r="E180" s="4">
-        <v>1</v>
-      </c>
-      <c r="F180" s="4">
-        <v>1</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="21">
+      <c r="E180" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="21">
       <c r="A181" s="5" t="s">
         <v>170</v>
       </c>
@@ -6348,20 +5326,14 @@
       <c r="D181" s="4">
         <v>0</v>
       </c>
-      <c r="E181" s="4">
-        <v>1</v>
+      <c r="E181" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F181" s="4">
-        <v>0</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H181" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="21">
       <c r="A182" s="5" t="s">
         <v>170</v>
       </c>
@@ -6374,20 +5346,14 @@
       <c r="D182" s="4">
         <v>1</v>
       </c>
-      <c r="E182" s="4">
-        <v>1</v>
+      <c r="E182" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F182" s="4">
         <v>1</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H182" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="21">
+    </row>
+    <row r="183" spans="1:6" ht="21">
       <c r="A183" s="5" t="s">
         <v>170</v>
       </c>
@@ -6400,20 +5366,14 @@
       <c r="D183" s="4">
         <v>1</v>
       </c>
-      <c r="E183" s="4">
-        <v>1</v>
+      <c r="E183" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
       </c>
-      <c r="G183" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H183" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="21">
+    </row>
+    <row r="184" spans="1:6" ht="21">
       <c r="A184" s="5" t="s">
         <v>170</v>
       </c>
@@ -6426,20 +5386,14 @@
       <c r="D184" s="4">
         <v>1</v>
       </c>
-      <c r="E184" s="4">
-        <v>1</v>
-      </c>
-      <c r="F184" s="4">
-        <v>1</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="21">
+      <c r="E184" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="21">
       <c r="A185" s="5" t="s">
         <v>170</v>
       </c>
@@ -6455,17 +5409,11 @@
       <c r="E185" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F185" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H185" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="21">
+      <c r="F185" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="21">
       <c r="A186" s="5" t="s">
         <v>170</v>
       </c>
@@ -6481,17 +5429,11 @@
       <c r="E186" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F186" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H186" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="21">
+      <c r="F186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="21">
       <c r="A187" s="5" t="s">
         <v>170</v>
       </c>
@@ -6510,14 +5452,8 @@
       <c r="F187" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G187" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="21">
+    </row>
+    <row r="188" spans="1:6" ht="21">
       <c r="A188" s="5" t="s">
         <v>170</v>
       </c>
@@ -6536,14 +5472,8 @@
       <c r="F188" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G188" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="21">
+    </row>
+    <row r="189" spans="1:6" ht="21">
       <c r="A189" s="5" t="s">
         <v>170</v>
       </c>
@@ -6562,14 +5492,8 @@
       <c r="F189" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G189" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="21">
+    </row>
+    <row r="190" spans="1:6" ht="21">
       <c r="A190" s="5" t="s">
         <v>170</v>
       </c>
@@ -6588,14 +5512,8 @@
       <c r="F190" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G190" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="21">
+    </row>
+    <row r="191" spans="1:6" ht="21">
       <c r="A191" s="5" t="s">
         <v>170</v>
       </c>
@@ -6614,14 +5532,8 @@
       <c r="F191" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G191" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="21">
+    </row>
+    <row r="192" spans="1:6" ht="21">
       <c r="A192" s="5" t="s">
         <v>170</v>
       </c>
@@ -6640,14 +5552,8 @@
       <c r="F192" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G192" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="21">
+    </row>
+    <row r="193" spans="1:6" ht="21">
       <c r="A193" s="5" t="s">
         <v>170</v>
       </c>
@@ -6666,14 +5572,8 @@
       <c r="F193" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G193" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H193" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="21">
+    </row>
+    <row r="194" spans="1:6" ht="21">
       <c r="A194" s="5" t="s">
         <v>170</v>
       </c>
@@ -6692,14 +5592,8 @@
       <c r="F194" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G194" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="21">
+    </row>
+    <row r="195" spans="1:6" ht="21">
       <c r="A195" s="5" t="s">
         <v>170</v>
       </c>
@@ -6718,14 +5612,8 @@
       <c r="F195" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G195" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="21">
+    </row>
+    <row r="196" spans="1:6" ht="21">
       <c r="A196" s="5" t="s">
         <v>170</v>
       </c>
@@ -6744,14 +5632,8 @@
       <c r="F196" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G196" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="21">
+    </row>
+    <row r="197" spans="1:6" ht="21">
       <c r="A197" s="5" t="s">
         <v>170</v>
       </c>
@@ -6770,14 +5652,8 @@
       <c r="F197" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G197" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="21">
+    </row>
+    <row r="198" spans="1:6" ht="21">
       <c r="A198" s="5" t="s">
         <v>170</v>
       </c>
@@ -6796,14 +5672,8 @@
       <c r="F198" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G198" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="21">
+    </row>
+    <row r="199" spans="1:6" ht="21">
       <c r="A199" s="5" t="s">
         <v>170</v>
       </c>
@@ -6822,14 +5692,8 @@
       <c r="F199" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G199" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="21">
+    </row>
+    <row r="200" spans="1:6" ht="21">
       <c r="A200" s="5" t="s">
         <v>170</v>
       </c>
@@ -6848,14 +5712,8 @@
       <c r="F200" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G200" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="21">
+    </row>
+    <row r="201" spans="1:6" ht="21">
       <c r="A201" s="5" t="s">
         <v>170</v>
       </c>
@@ -6874,14 +5732,8 @@
       <c r="F201" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G201" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="21">
+    </row>
+    <row r="202" spans="1:6" ht="21">
       <c r="A202" s="5" t="s">
         <v>170</v>
       </c>
@@ -6900,14 +5752,8 @@
       <c r="F202" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G202" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="21">
+    </row>
+    <row r="203" spans="1:6" ht="21">
       <c r="A203" s="5" t="s">
         <v>170</v>
       </c>
@@ -6926,14 +5772,8 @@
       <c r="F203" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G203" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="21">
+    </row>
+    <row r="204" spans="1:6" ht="21">
       <c r="A204" s="5" t="s">
         <v>170</v>
       </c>
@@ -6952,14 +5792,8 @@
       <c r="F204" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G204" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="21">
+    </row>
+    <row r="205" spans="1:6" ht="21">
       <c r="A205" s="5" t="s">
         <v>170</v>
       </c>
@@ -6978,14 +5812,8 @@
       <c r="F205" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G205" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="21">
+    </row>
+    <row r="206" spans="1:6" ht="21">
       <c r="A206" s="5" t="s">
         <v>170</v>
       </c>
@@ -7004,14 +5832,8 @@
       <c r="F206" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G206" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H206" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="21">
+    </row>
+    <row r="207" spans="1:6" ht="21">
       <c r="A207" s="5" t="s">
         <v>170</v>
       </c>
@@ -7030,14 +5852,8 @@
       <c r="F207" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G207" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="21">
+    </row>
+    <row r="208" spans="1:6" ht="21">
       <c r="A208" s="5" t="s">
         <v>170</v>
       </c>
@@ -7056,14 +5872,8 @@
       <c r="F208" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G208" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="21">
+    </row>
+    <row r="209" spans="1:6" ht="21">
       <c r="A209" s="5" t="s">
         <v>170</v>
       </c>
@@ -7082,14 +5892,8 @@
       <c r="F209" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G209" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="21">
+    </row>
+    <row r="210" spans="1:6" ht="21">
       <c r="A210" s="5" t="s">
         <v>170</v>
       </c>
@@ -7108,14 +5912,8 @@
       <c r="F210" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G210" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="21">
+    </row>
+    <row r="211" spans="1:6" ht="21">
       <c r="A211" s="5" t="s">
         <v>170</v>
       </c>
@@ -7134,32 +5932,22 @@
       <c r="F211" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G211" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="21">
+    </row>
+    <row r="212" spans="1:6" ht="21">
       <c r="A212" s="8"/>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
-    </row>
-    <row r="213" spans="1:8" ht="21">
+    </row>
+    <row r="213" spans="1:6" ht="21">
       <c r="A213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
-    </row>
-    <row r="214" spans="1:8" ht="21">
+    </row>
+    <row r="214" spans="1:6" ht="21">
       <c r="A214" s="5" t="s">
         <v>206</v>
       </c>
@@ -7172,20 +5960,14 @@
       <c r="D214" s="4">
         <v>1</v>
       </c>
-      <c r="E214" s="4">
-        <v>1</v>
-      </c>
-      <c r="F214" s="4">
-        <v>0</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="21">
+      <c r="E214" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="21">
       <c r="A215" s="5" t="s">
         <v>206</v>
       </c>
@@ -7204,14 +5986,8 @@
       <c r="F215" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G215" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="21">
+    </row>
+    <row r="216" spans="1:6" ht="21">
       <c r="A216" s="5" t="s">
         <v>206</v>
       </c>
@@ -7224,20 +6000,14 @@
       <c r="D216" s="4">
         <v>1</v>
       </c>
-      <c r="E216" s="4">
-        <v>1</v>
-      </c>
-      <c r="F216" s="4">
-        <v>0</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="21">
+      <c r="E216" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="21">
       <c r="A217" s="5" t="s">
         <v>206</v>
       </c>
@@ -7256,14 +6026,8 @@
       <c r="F217" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G217" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H217" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="21">
+    </row>
+    <row r="218" spans="1:6" ht="21">
       <c r="A218" s="5" t="s">
         <v>206</v>
       </c>
@@ -7276,20 +6040,14 @@
       <c r="D218" s="4">
         <v>1</v>
       </c>
-      <c r="E218" s="4">
-        <v>1</v>
-      </c>
-      <c r="F218" s="4">
-        <v>0</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="21">
+      <c r="E218" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="21">
       <c r="A219" s="5" t="s">
         <v>206</v>
       </c>
@@ -7308,14 +6066,8 @@
       <c r="F219" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G219" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="21">
+    </row>
+    <row r="220" spans="1:6" ht="21">
       <c r="A220" s="5" t="s">
         <v>206</v>
       </c>
@@ -7334,14 +6086,8 @@
       <c r="F220" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G220" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="21">
+    </row>
+    <row r="221" spans="1:6" ht="21">
       <c r="A221" s="5" t="s">
         <v>206</v>
       </c>
@@ -7354,20 +6100,14 @@
       <c r="D221" s="4">
         <v>1</v>
       </c>
-      <c r="E221" s="4">
-        <v>0</v>
-      </c>
-      <c r="F221" s="4">
-        <v>0</v>
-      </c>
-      <c r="G221" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H221" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="21">
+      <c r="E221" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="21">
       <c r="A222" s="5" t="s">
         <v>206</v>
       </c>
@@ -7386,14 +6126,8 @@
       <c r="F222" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G222" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="21">
+    </row>
+    <row r="223" spans="1:6" ht="21">
       <c r="A223" s="5" t="s">
         <v>206</v>
       </c>
@@ -7412,14 +6146,8 @@
       <c r="F223" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G223" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H223" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="21">
+    </row>
+    <row r="224" spans="1:6" ht="21">
       <c r="A224" s="5" t="s">
         <v>206</v>
       </c>
@@ -7438,14 +6166,8 @@
       <c r="F224" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G224" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H224" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="21">
+    </row>
+    <row r="225" spans="1:6" ht="21">
       <c r="A225" s="5" t="s">
         <v>206</v>
       </c>
@@ -7464,14 +6186,8 @@
       <c r="F225" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G225" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="21">
+    </row>
+    <row r="226" spans="1:6" ht="21">
       <c r="A226" s="5" t="s">
         <v>206</v>
       </c>
@@ -7490,14 +6206,8 @@
       <c r="F226" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G226" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="21">
+    </row>
+    <row r="227" spans="1:6" ht="21">
       <c r="A227" s="5" t="s">
         <v>206</v>
       </c>
@@ -7516,14 +6226,8 @@
       <c r="F227" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G227" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H227" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="21">
+    </row>
+    <row r="228" spans="1:6" ht="21">
       <c r="A228" s="5" t="s">
         <v>206</v>
       </c>
@@ -7542,14 +6246,8 @@
       <c r="F228" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G228" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="21">
+    </row>
+    <row r="229" spans="1:6" ht="21">
       <c r="A229" s="5" t="s">
         <v>206</v>
       </c>
@@ -7568,14 +6266,8 @@
       <c r="F229" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G229" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H229" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="21">
+    </row>
+    <row r="230" spans="1:6" ht="21">
       <c r="A230" s="5" t="s">
         <v>206</v>
       </c>
@@ -7594,14 +6286,8 @@
       <c r="F230" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G230" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="21">
+    </row>
+    <row r="231" spans="1:6" ht="21">
       <c r="A231" s="5" t="s">
         <v>206</v>
       </c>
@@ -7620,14 +6306,8 @@
       <c r="F231" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G231" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H231" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="21">
+    </row>
+    <row r="232" spans="1:6" ht="21">
       <c r="A232" s="5" t="s">
         <v>206</v>
       </c>
@@ -7646,14 +6326,8 @@
       <c r="F232" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G232" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="21">
+    </row>
+    <row r="233" spans="1:6" ht="21">
       <c r="A233" s="5" t="s">
         <v>206</v>
       </c>
@@ -7672,14 +6346,8 @@
       <c r="F233" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G233" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="21">
+    </row>
+    <row r="234" spans="1:6" ht="21">
       <c r="A234" s="5" t="s">
         <v>206</v>
       </c>
@@ -7698,14 +6366,8 @@
       <c r="F234" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G234" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="21">
+    </row>
+    <row r="235" spans="1:6" ht="21">
       <c r="A235" s="5" t="s">
         <v>206</v>
       </c>
@@ -7724,30 +6386,20 @@
       <c r="F235" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G235" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="21">
+    </row>
+    <row r="236" spans="1:6" ht="21">
       <c r="C236" s="7"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
-      <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
-    </row>
-    <row r="237" spans="1:8" ht="21">
+    </row>
+    <row r="237" spans="1:6" ht="21">
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="1:8" ht="21">
+    </row>
+    <row r="238" spans="1:6" ht="21">
       <c r="A238" s="5" t="s">
         <v>229</v>
       </c>
@@ -7760,20 +6412,14 @@
       <c r="D238" s="4">
         <v>1</v>
       </c>
-      <c r="E238" s="4">
-        <v>0</v>
-      </c>
-      <c r="F238" s="4">
-        <v>0</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H238" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="21">
+      <c r="E238" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="21">
       <c r="A239" s="5" t="s">
         <v>229</v>
       </c>
@@ -7787,19 +6433,13 @@
         <v>1</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>3</v>
+        <v>472</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G239" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="H239" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="21">
+    </row>
+    <row r="240" spans="1:6" ht="21">
       <c r="A240" s="5" t="s">
         <v>229</v>
       </c>
@@ -7812,20 +6452,14 @@
       <c r="D240" s="4">
         <v>1</v>
       </c>
-      <c r="E240" s="4">
-        <v>0</v>
-      </c>
-      <c r="F240" s="4">
-        <v>0</v>
-      </c>
-      <c r="G240" s="4" t="s">
+      <c r="E240" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H240" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="21">
+      <c r="F240" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="21">
       <c r="A241" s="5" t="s">
         <v>229</v>
       </c>
@@ -7838,20 +6472,14 @@
       <c r="D241" s="4">
         <v>1</v>
       </c>
-      <c r="E241" s="4">
-        <v>1</v>
-      </c>
-      <c r="F241" s="4">
-        <v>1</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="21">
+      <c r="E241" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="21">
       <c r="A242" s="5" t="s">
         <v>229</v>
       </c>
@@ -7864,20 +6492,14 @@
       <c r="D242" s="4">
         <v>1</v>
       </c>
-      <c r="E242" s="4">
-        <v>1</v>
-      </c>
-      <c r="F242" s="4">
-        <v>0</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="21">
+      <c r="E242" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="21">
       <c r="A243" s="5" t="s">
         <v>229</v>
       </c>
@@ -7896,14 +6518,8 @@
       <c r="F243" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G243" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H243" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="21">
+    </row>
+    <row r="244" spans="1:6" ht="21">
       <c r="A244" s="5" t="s">
         <v>229</v>
       </c>
@@ -7922,14 +6538,8 @@
       <c r="F244" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G244" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H244" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="21">
+    </row>
+    <row r="245" spans="1:6" ht="21">
       <c r="A245" s="5" t="s">
         <v>229</v>
       </c>
@@ -7948,14 +6558,8 @@
       <c r="F245" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G245" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H245" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="21">
+    </row>
+    <row r="246" spans="1:6" ht="21">
       <c r="A246" s="5" t="s">
         <v>229</v>
       </c>
@@ -7974,14 +6578,8 @@
       <c r="F246" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G246" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="21">
+    </row>
+    <row r="247" spans="1:6" ht="21">
       <c r="A247" s="5" t="s">
         <v>229</v>
       </c>
@@ -8000,14 +6598,8 @@
       <c r="F247" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G247" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H247" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="21">
+    </row>
+    <row r="248" spans="1:6" ht="21">
       <c r="A248" s="5" t="s">
         <v>229</v>
       </c>
@@ -8026,14 +6618,8 @@
       <c r="F248" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G248" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H248" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="21">
+    </row>
+    <row r="249" spans="1:6" ht="21">
       <c r="A249" s="5" t="s">
         <v>229</v>
       </c>
@@ -8052,14 +6638,8 @@
       <c r="F249" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G249" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H249" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="21">
+    </row>
+    <row r="250" spans="1:6" ht="21">
       <c r="A250" s="5" t="s">
         <v>229</v>
       </c>
@@ -8078,14 +6658,8 @@
       <c r="F250" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G250" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H250" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="21">
+    </row>
+    <row r="251" spans="1:6" ht="21">
       <c r="A251" s="5" t="s">
         <v>229</v>
       </c>
@@ -8104,14 +6678,8 @@
       <c r="F251" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G251" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H251" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="21">
+    </row>
+    <row r="252" spans="1:6" ht="21">
       <c r="A252" s="5" t="s">
         <v>229</v>
       </c>
@@ -8130,14 +6698,8 @@
       <c r="F252" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G252" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="21">
+    </row>
+    <row r="253" spans="1:6" ht="21">
       <c r="A253" s="5" t="s">
         <v>229</v>
       </c>
@@ -8156,14 +6718,8 @@
       <c r="F253" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G253" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H253" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="21">
+    </row>
+    <row r="254" spans="1:6" ht="21">
       <c r="A254" s="5" t="s">
         <v>229</v>
       </c>
@@ -8182,14 +6738,8 @@
       <c r="F254" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G254" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H254" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="21">
+    </row>
+    <row r="255" spans="1:6" ht="21">
       <c r="A255" s="5" t="s">
         <v>229</v>
       </c>
@@ -8208,14 +6758,8 @@
       <c r="F255" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G255" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H255" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="21">
+    </row>
+    <row r="256" spans="1:6" ht="21">
       <c r="A256" s="5" t="s">
         <v>229</v>
       </c>
@@ -8234,14 +6778,8 @@
       <c r="F256" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G256" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H256" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="21">
+    </row>
+    <row r="257" spans="1:6" ht="21">
       <c r="A257" s="5" t="s">
         <v>229</v>
       </c>
@@ -8260,14 +6798,8 @@
       <c r="F257" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G257" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H257" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="21">
+    </row>
+    <row r="258" spans="1:6" ht="21">
       <c r="A258" s="5" t="s">
         <v>229</v>
       </c>
@@ -8286,14 +6818,8 @@
       <c r="F258" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G258" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H258" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="21">
+    </row>
+    <row r="259" spans="1:6" ht="21">
       <c r="A259" s="5" t="s">
         <v>229</v>
       </c>
@@ -8312,14 +6838,8 @@
       <c r="F259" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G259" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H259" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="21">
+    </row>
+    <row r="260" spans="1:6" ht="21">
       <c r="A260" s="5" t="s">
         <v>229</v>
       </c>
@@ -8338,14 +6858,8 @@
       <c r="F260" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G260" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H260" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="21">
+    </row>
+    <row r="261" spans="1:6" ht="21">
       <c r="A261" s="5" t="s">
         <v>229</v>
       </c>
@@ -8364,14 +6878,8 @@
       <c r="F261" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G261" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H261" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="21">
+    </row>
+    <row r="262" spans="1:6" ht="21">
       <c r="A262" s="5" t="s">
         <v>229</v>
       </c>
@@ -8390,14 +6898,8 @@
       <c r="F262" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G262" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H262" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" ht="21">
+    </row>
+    <row r="263" spans="1:6" ht="21">
       <c r="A263" s="5" t="s">
         <v>229</v>
       </c>
@@ -8416,14 +6918,8 @@
       <c r="F263" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G263" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H263" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="21">
+    </row>
+    <row r="264" spans="1:6" ht="21">
       <c r="A264" s="5" t="s">
         <v>229</v>
       </c>
@@ -8442,14 +6938,8 @@
       <c r="F264" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G264" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H264" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="21">
+    </row>
+    <row r="265" spans="1:6" ht="21">
       <c r="A265" s="5" t="s">
         <v>229</v>
       </c>
@@ -8468,14 +6958,8 @@
       <c r="F265" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G265" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H265" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="21">
+    </row>
+    <row r="266" spans="1:6" ht="21">
       <c r="A266" s="5" t="s">
         <v>229</v>
       </c>
@@ -8494,14 +6978,8 @@
       <c r="F266" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G266" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H266" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="21">
+    </row>
+    <row r="267" spans="1:6" ht="21">
       <c r="A267" s="5" t="s">
         <v>229</v>
       </c>
@@ -8520,14 +6998,8 @@
       <c r="F267" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G267" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H267" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="21">
+    </row>
+    <row r="268" spans="1:6" ht="21">
       <c r="A268" s="5" t="s">
         <v>229</v>
       </c>
@@ -8546,14 +7018,8 @@
       <c r="F268" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G268" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H268" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="21">
+    </row>
+    <row r="269" spans="1:6" ht="21">
       <c r="A269" s="5" t="s">
         <v>229</v>
       </c>
@@ -8572,14 +7038,8 @@
       <c r="F269" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G269" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H269" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="21">
+    </row>
+    <row r="270" spans="1:6" ht="21">
       <c r="A270" s="5" t="s">
         <v>229</v>
       </c>
@@ -8598,14 +7058,8 @@
       <c r="F270" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G270" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H270" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" ht="21">
+    </row>
+    <row r="271" spans="1:6" ht="21">
       <c r="A271" s="5" t="s">
         <v>229</v>
       </c>
@@ -8624,14 +7078,8 @@
       <c r="F271" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G271" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H271" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" ht="21">
+    </row>
+    <row r="272" spans="1:6" ht="21">
       <c r="A272" s="5" t="s">
         <v>229</v>
       </c>
@@ -8650,30 +7098,20 @@
       <c r="F272" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G272" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H272" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="21">
+    </row>
+    <row r="273" spans="1:6" ht="21">
       <c r="C273" s="7"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-    </row>
-    <row r="274" spans="1:8" ht="21">
+    </row>
+    <row r="274" spans="1:6" ht="21">
       <c r="C274" s="7"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
-      <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
-    </row>
-    <row r="275" spans="1:8" ht="21">
+    </row>
+    <row r="275" spans="1:6" ht="21">
       <c r="A275" s="5" t="s">
         <v>264</v>
       </c>
@@ -8692,14 +7130,8 @@
       <c r="F275" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G275" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H275" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="21">
+    </row>
+    <row r="276" spans="1:6" ht="21">
       <c r="A276" s="5" t="s">
         <v>264</v>
       </c>
@@ -8718,14 +7150,8 @@
       <c r="F276" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G276" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H276" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="21">
+    </row>
+    <row r="277" spans="1:6" ht="21">
       <c r="A277" s="5" t="s">
         <v>264</v>
       </c>
@@ -8744,14 +7170,8 @@
       <c r="F277" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G277" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H277" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="21">
+    </row>
+    <row r="278" spans="1:6" ht="21">
       <c r="A278" s="5" t="s">
         <v>264</v>
       </c>
@@ -8770,14 +7190,8 @@
       <c r="F278" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G278" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H278" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="21">
+    </row>
+    <row r="279" spans="1:6" ht="21">
       <c r="A279" s="5" t="s">
         <v>264</v>
       </c>
@@ -8796,14 +7210,8 @@
       <c r="F279" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G279" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H279" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="21">
+    </row>
+    <row r="280" spans="1:6" ht="21">
       <c r="A280" s="5" t="s">
         <v>264</v>
       </c>
@@ -8822,14 +7230,8 @@
       <c r="F280" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G280" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H280" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="21">
+    </row>
+    <row r="281" spans="1:6" ht="21">
       <c r="A281" s="5" t="s">
         <v>264</v>
       </c>
@@ -8848,14 +7250,8 @@
       <c r="F281" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G281" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H281" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="21">
+    </row>
+    <row r="282" spans="1:6" ht="21">
       <c r="A282" s="5" t="s">
         <v>264</v>
       </c>
@@ -8874,14 +7270,8 @@
       <c r="F282" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G282" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H282" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="21">
+    </row>
+    <row r="283" spans="1:6" ht="21">
       <c r="A283" s="5" t="s">
         <v>264</v>
       </c>
@@ -8900,14 +7290,8 @@
       <c r="F283" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G283" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H283" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="21">
+    </row>
+    <row r="284" spans="1:6" ht="21">
       <c r="A284" s="5" t="s">
         <v>264</v>
       </c>
@@ -8926,14 +7310,8 @@
       <c r="F284" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G284" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H284" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" ht="21">
+    </row>
+    <row r="285" spans="1:6" ht="21">
       <c r="A285" s="5" t="s">
         <v>264</v>
       </c>
@@ -8952,14 +7330,8 @@
       <c r="F285" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G285" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H285" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" ht="21">
+    </row>
+    <row r="286" spans="1:6" ht="21">
       <c r="A286" s="5" t="s">
         <v>264</v>
       </c>
@@ -8978,14 +7350,8 @@
       <c r="F286" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G286" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H286" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="21">
+    </row>
+    <row r="287" spans="1:6" ht="21">
       <c r="A287" s="5" t="s">
         <v>264</v>
       </c>
@@ -9004,14 +7370,8 @@
       <c r="F287" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G287" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H287" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" ht="21">
+    </row>
+    <row r="288" spans="1:6" ht="21">
       <c r="A288" s="5" t="s">
         <v>264</v>
       </c>
@@ -9030,14 +7390,8 @@
       <c r="F288" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G288" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H288" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="21">
+    </row>
+    <row r="289" spans="1:6" ht="21">
       <c r="A289" s="5" t="s">
         <v>264</v>
       </c>
@@ -9056,14 +7410,8 @@
       <c r="F289" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G289" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H289" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="21">
+    </row>
+    <row r="290" spans="1:6" ht="21">
       <c r="A290" s="5" t="s">
         <v>264</v>
       </c>
@@ -9082,14 +7430,8 @@
       <c r="F290" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G290" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H290" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="21">
+    </row>
+    <row r="291" spans="1:6" ht="21">
       <c r="A291" s="5" t="s">
         <v>264</v>
       </c>
@@ -9108,14 +7450,8 @@
       <c r="F291" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G291" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H291" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" ht="21">
+    </row>
+    <row r="292" spans="1:6" ht="21">
       <c r="A292" s="5" t="s">
         <v>264</v>
       </c>
@@ -9134,14 +7470,8 @@
       <c r="F292" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G292" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H292" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" ht="21">
+    </row>
+    <row r="293" spans="1:6" ht="21">
       <c r="A293" s="5" t="s">
         <v>264</v>
       </c>
@@ -9160,30 +7490,20 @@
       <c r="F293" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G293" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H293" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="21">
+    </row>
+    <row r="294" spans="1:6" ht="21">
       <c r="C294" s="7"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
-      <c r="G294" s="4"/>
-      <c r="H294" s="4"/>
-    </row>
-    <row r="295" spans="1:8" ht="21">
+    </row>
+    <row r="295" spans="1:6" ht="21">
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
-      <c r="G295" s="4"/>
-      <c r="H295" s="4"/>
-    </row>
-    <row r="296" spans="1:8" ht="21">
+    </row>
+    <row r="296" spans="1:6" ht="21">
       <c r="A296" s="5" t="s">
         <v>284</v>
       </c>
@@ -9196,20 +7516,14 @@
       <c r="D296" s="4">
         <v>1</v>
       </c>
-      <c r="E296" s="4">
-        <v>1</v>
-      </c>
-      <c r="F296" s="4">
-        <v>1</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H296" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" ht="21">
+      <c r="E296" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="21">
       <c r="A297" s="5" t="s">
         <v>284</v>
       </c>
@@ -9222,20 +7536,14 @@
       <c r="D297" s="4">
         <v>1</v>
       </c>
-      <c r="E297" s="4">
-        <v>1</v>
-      </c>
-      <c r="F297" s="4">
-        <v>0</v>
-      </c>
-      <c r="G297" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H297" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="21">
+      <c r="E297" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="21">
       <c r="A298" s="5" t="s">
         <v>284</v>
       </c>
@@ -9249,17 +7557,13 @@
         <v>1</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F298" s="4"/>
-      <c r="G298" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H298" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="21">
       <c r="A299" s="5" t="s">
         <v>284</v>
       </c>
@@ -9272,20 +7576,14 @@
       <c r="D299" s="4">
         <v>0</v>
       </c>
-      <c r="E299" s="4">
-        <v>0</v>
-      </c>
-      <c r="F299" s="4">
-        <v>0</v>
-      </c>
-      <c r="G299" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H299" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" ht="21">
+      <c r="E299" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="21">
       <c r="A300" s="5" t="s">
         <v>284</v>
       </c>
@@ -9298,18 +7596,12 @@
       <c r="D300" s="4">
         <v>1</v>
       </c>
-      <c r="E300" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E300" s="4"/>
       <c r="F300" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G300" s="4"/>
-      <c r="H300" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" ht="21">
+    </row>
+    <row r="301" spans="1:6" ht="21">
       <c r="A301" s="5" t="s">
         <v>284</v>
       </c>
@@ -9322,20 +7614,14 @@
       <c r="D301" s="4">
         <v>1</v>
       </c>
-      <c r="E301" s="4">
-        <v>1</v>
-      </c>
-      <c r="F301" s="4">
-        <v>0</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H301" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="21">
+      <c r="E301" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="21">
       <c r="A302" s="5" t="s">
         <v>284</v>
       </c>
@@ -9348,20 +7634,14 @@
       <c r="D302" s="4">
         <v>1</v>
       </c>
-      <c r="E302" s="4">
-        <v>1</v>
-      </c>
-      <c r="F302" s="4">
-        <v>1</v>
-      </c>
-      <c r="G302" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H302" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="21">
+      <c r="E302" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="21">
       <c r="A303" s="5" t="s">
         <v>284</v>
       </c>
@@ -9375,19 +7655,13 @@
         <v>1</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G303" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H303" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="21">
       <c r="A304" s="5" t="s">
         <v>284</v>
       </c>
@@ -9400,20 +7674,14 @@
       <c r="D304" s="4">
         <v>1</v>
       </c>
-      <c r="E304" s="4">
-        <v>1</v>
-      </c>
-      <c r="F304" s="4">
-        <v>1</v>
-      </c>
-      <c r="G304" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H304" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" ht="21">
+      <c r="E304" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="21">
       <c r="A305" s="5" t="s">
         <v>284</v>
       </c>
@@ -9426,20 +7694,14 @@
       <c r="D305" s="4">
         <v>1</v>
       </c>
-      <c r="E305" s="4">
-        <v>0</v>
-      </c>
-      <c r="F305" s="4">
-        <v>0</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H305" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" ht="21">
+      <c r="E305" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="21">
       <c r="A306" s="5" t="s">
         <v>284</v>
       </c>
@@ -9453,19 +7715,13 @@
         <v>471</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G306" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H306" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="21">
       <c r="A307" s="5" t="s">
         <v>284</v>
       </c>
@@ -9478,20 +7734,14 @@
       <c r="D307" s="4">
         <v>1</v>
       </c>
-      <c r="E307" s="4">
-        <v>1</v>
-      </c>
-      <c r="F307" s="4">
-        <v>0</v>
-      </c>
-      <c r="G307" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H307" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="21">
+      <c r="E307" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="21">
       <c r="A308" s="5" t="s">
         <v>284</v>
       </c>
@@ -9510,14 +7760,8 @@
       <c r="F308" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G308" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H308" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" ht="21">
+    </row>
+    <row r="309" spans="1:6" ht="21">
       <c r="A309" s="5" t="s">
         <v>284</v>
       </c>
@@ -9530,20 +7774,14 @@
       <c r="D309" s="4">
         <v>1</v>
       </c>
-      <c r="E309" s="4">
-        <v>1</v>
-      </c>
-      <c r="F309" s="4">
-        <v>0</v>
-      </c>
-      <c r="G309" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H309" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="21">
+      <c r="E309" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="21">
       <c r="A310" s="5" t="s">
         <v>284</v>
       </c>
@@ -9556,20 +7794,14 @@
       <c r="D310" s="4">
         <v>1</v>
       </c>
-      <c r="E310" s="4">
-        <v>1</v>
-      </c>
-      <c r="F310" s="4">
-        <v>1</v>
-      </c>
-      <c r="G310" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H310" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" ht="21">
+      <c r="E310" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="21">
       <c r="A311" s="5" t="s">
         <v>284</v>
       </c>
@@ -9582,20 +7814,14 @@
       <c r="D311" s="4">
         <v>1</v>
       </c>
-      <c r="E311" s="4">
-        <v>1</v>
-      </c>
-      <c r="F311" s="4">
-        <v>0</v>
-      </c>
-      <c r="G311" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H311" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" ht="21">
+      <c r="E311" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="21">
       <c r="A312" s="5" t="s">
         <v>284</v>
       </c>
@@ -9608,20 +7834,14 @@
       <c r="D312" s="4">
         <v>1</v>
       </c>
-      <c r="E312" s="4">
-        <v>1</v>
-      </c>
-      <c r="F312" s="4">
-        <v>1</v>
-      </c>
-      <c r="G312" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H312" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="21">
+      <c r="E312" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="21">
       <c r="A313" s="5" t="s">
         <v>284</v>
       </c>
@@ -9634,20 +7854,14 @@
       <c r="D313" s="4">
         <v>1</v>
       </c>
-      <c r="E313" s="4">
-        <v>1</v>
-      </c>
-      <c r="F313" s="4">
-        <v>1</v>
-      </c>
-      <c r="G313" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H313" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="21">
+      <c r="E313" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="21">
       <c r="A314" s="5" t="s">
         <v>284</v>
       </c>
@@ -9660,20 +7874,14 @@
       <c r="D314" s="4">
         <v>1</v>
       </c>
-      <c r="E314" s="4">
-        <v>1</v>
-      </c>
-      <c r="F314" s="4">
-        <v>1</v>
-      </c>
-      <c r="G314" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H314" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" ht="21">
+      <c r="E314" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="21">
       <c r="A315" s="5" t="s">
         <v>284</v>
       </c>
@@ -9686,20 +7894,14 @@
       <c r="D315" s="4">
         <v>1</v>
       </c>
-      <c r="E315" s="4">
-        <v>1</v>
-      </c>
-      <c r="F315" s="4">
-        <v>1</v>
-      </c>
-      <c r="G315" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H315" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" ht="21">
+      <c r="E315" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="21">
       <c r="A316" s="5" t="s">
         <v>284</v>
       </c>
@@ -9712,20 +7914,14 @@
       <c r="D316" s="4">
         <v>0</v>
       </c>
-      <c r="E316" s="4">
-        <v>0</v>
-      </c>
-      <c r="F316" s="4">
-        <v>0</v>
-      </c>
-      <c r="G316" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H316" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" ht="21">
+      <c r="E316" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="21">
       <c r="A317" s="5" t="s">
         <v>284</v>
       </c>
@@ -9739,19 +7935,13 @@
         <v>1</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G317" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H317" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="21">
       <c r="A318" s="5" t="s">
         <v>284</v>
       </c>
@@ -9764,20 +7954,14 @@
       <c r="D318" s="4">
         <v>1</v>
       </c>
-      <c r="E318" s="4">
-        <v>1</v>
-      </c>
-      <c r="F318" s="4">
-        <v>0</v>
-      </c>
-      <c r="G318" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H318" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="21">
+      <c r="E318" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="21">
       <c r="A319" s="5" t="s">
         <v>284</v>
       </c>
@@ -9796,14 +7980,8 @@
       <c r="F319" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G319" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H319" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" ht="21">
+    </row>
+    <row r="320" spans="1:6" ht="21">
       <c r="A320" s="5" t="s">
         <v>284</v>
       </c>
@@ -9822,14 +8000,8 @@
       <c r="F320" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G320" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H320" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" ht="21">
+    </row>
+    <row r="321" spans="1:6" ht="21">
       <c r="A321" s="5" t="s">
         <v>284</v>
       </c>
@@ -9848,14 +8020,8 @@
       <c r="F321" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G321" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H321" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="21">
+    </row>
+    <row r="322" spans="1:6" ht="21">
       <c r="A322" s="5" t="s">
         <v>284</v>
       </c>
@@ -9874,14 +8040,8 @@
       <c r="F322" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G322" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H322" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" ht="21">
+    </row>
+    <row r="323" spans="1:6" ht="21">
       <c r="A323" s="5" t="s">
         <v>284</v>
       </c>
@@ -9900,14 +8060,8 @@
       <c r="F323" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G323" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H323" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" ht="21">
+    </row>
+    <row r="324" spans="1:6" ht="21">
       <c r="A324" s="5" t="s">
         <v>284</v>
       </c>
@@ -9926,14 +8080,8 @@
       <c r="F324" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G324" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H324" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="21">
+    </row>
+    <row r="325" spans="1:6" ht="21">
       <c r="A325" s="5" t="s">
         <v>284</v>
       </c>
@@ -9952,14 +8100,8 @@
       <c r="F325" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G325" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H325" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" ht="21">
+    </row>
+    <row r="326" spans="1:6" ht="21">
       <c r="A326" s="5" t="s">
         <v>284</v>
       </c>
@@ -9978,14 +8120,8 @@
       <c r="F326" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G326" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H326" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="21">
+    </row>
+    <row r="327" spans="1:6" ht="21">
       <c r="A327" s="5" t="s">
         <v>284</v>
       </c>
@@ -10004,14 +8140,8 @@
       <c r="F327" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G327" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H327" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="21">
+    </row>
+    <row r="328" spans="1:6" ht="21">
       <c r="A328" s="5" t="s">
         <v>284</v>
       </c>
@@ -10030,14 +8160,8 @@
       <c r="F328" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G328" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H328" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="21">
+    </row>
+    <row r="329" spans="1:6" ht="21">
       <c r="A329" s="5" t="s">
         <v>284</v>
       </c>
@@ -10056,14 +8180,8 @@
       <c r="F329" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G329" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H329" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="21">
+    </row>
+    <row r="330" spans="1:6" ht="21">
       <c r="A330" s="5" t="s">
         <v>284</v>
       </c>
@@ -10082,14 +8200,8 @@
       <c r="F330" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G330" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H330" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="21">
+    </row>
+    <row r="331" spans="1:6" ht="21">
       <c r="A331" s="5" t="s">
         <v>284</v>
       </c>
@@ -10108,14 +8220,8 @@
       <c r="F331" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G331" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H331" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="21">
+    </row>
+    <row r="332" spans="1:6" ht="21">
       <c r="A332" s="5" t="s">
         <v>284</v>
       </c>
@@ -10134,14 +8240,8 @@
       <c r="F332" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G332" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H332" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="21">
+    </row>
+    <row r="333" spans="1:6" ht="21">
       <c r="A333" s="5" t="s">
         <v>284</v>
       </c>
@@ -10160,30 +8260,20 @@
       <c r="F333" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G333" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H333" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="21">
+    </row>
+    <row r="334" spans="1:6" ht="21">
       <c r="C334" s="7"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
-      <c r="G334" s="4"/>
-      <c r="H334" s="4"/>
-    </row>
-    <row r="335" spans="1:8" ht="21">
+    </row>
+    <row r="335" spans="1:6" ht="21">
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
-      <c r="G335" s="4"/>
-      <c r="H335" s="4"/>
-    </row>
-    <row r="336" spans="1:8" ht="21">
+    </row>
+    <row r="336" spans="1:6" ht="21">
       <c r="A336" s="8" t="s">
         <v>323</v>
       </c>
@@ -10196,20 +8286,14 @@
       <c r="D336" s="4">
         <v>1</v>
       </c>
-      <c r="E336" s="4">
-        <v>1</v>
-      </c>
-      <c r="F336" s="4">
-        <v>1</v>
-      </c>
-      <c r="G336" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H336" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="21">
+      <c r="E336" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="21">
       <c r="A337" s="8" t="s">
         <v>323</v>
       </c>
@@ -10223,19 +8307,13 @@
         <v>1</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G337" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H337" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="21">
       <c r="A338" s="8" t="s">
         <v>323</v>
       </c>
@@ -10248,20 +8326,14 @@
       <c r="D338" s="4">
         <v>1</v>
       </c>
-      <c r="E338" s="4">
-        <v>1</v>
-      </c>
-      <c r="F338" s="4">
-        <v>1</v>
-      </c>
-      <c r="G338" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H338" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="21">
+      <c r="E338" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="21">
       <c r="A339" s="8" t="s">
         <v>323</v>
       </c>
@@ -10274,20 +8346,14 @@
       <c r="D339" s="4">
         <v>1</v>
       </c>
-      <c r="E339" s="4">
-        <v>1</v>
-      </c>
-      <c r="F339" s="4">
-        <v>1</v>
-      </c>
-      <c r="G339" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H339" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="21">
+      <c r="E339" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="21">
       <c r="A340" s="8" t="s">
         <v>323</v>
       </c>
@@ -10300,20 +8366,14 @@
       <c r="D340" s="4">
         <v>1</v>
       </c>
-      <c r="E340" s="4">
-        <v>1</v>
-      </c>
-      <c r="F340" s="4">
-        <v>1</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H340" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" ht="21">
+      <c r="E340" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="21">
       <c r="A341" s="8" t="s">
         <v>323</v>
       </c>
@@ -10326,20 +8386,14 @@
       <c r="D341" s="4">
         <v>1</v>
       </c>
-      <c r="E341" s="4">
-        <v>1</v>
-      </c>
-      <c r="F341" s="4">
-        <v>0</v>
-      </c>
-      <c r="G341" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H341" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="21">
+      <c r="E341" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="21">
       <c r="A342" s="8" t="s">
         <v>323</v>
       </c>
@@ -10352,20 +8406,14 @@
       <c r="D342" s="4">
         <v>1</v>
       </c>
-      <c r="E342" s="4">
-        <v>1</v>
-      </c>
-      <c r="F342" s="4">
-        <v>1</v>
-      </c>
-      <c r="G342" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H342" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="21">
+      <c r="E342" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="21">
       <c r="A343" s="8" t="s">
         <v>323</v>
       </c>
@@ -10378,20 +8426,14 @@
       <c r="D343" s="4">
         <v>1</v>
       </c>
-      <c r="E343" s="4">
-        <v>1</v>
-      </c>
-      <c r="F343" s="4">
-        <v>1</v>
-      </c>
-      <c r="G343" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H343" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="21">
+      <c r="E343" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="21">
       <c r="A344" s="8" t="s">
         <v>323</v>
       </c>
@@ -10410,14 +8452,8 @@
       <c r="F344" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G344" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H344" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" ht="21">
+    </row>
+    <row r="345" spans="1:6" ht="21">
       <c r="A345" s="8" t="s">
         <v>323</v>
       </c>
@@ -10436,14 +8472,8 @@
       <c r="F345" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G345" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H345" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="21">
+    </row>
+    <row r="346" spans="1:6" ht="21">
       <c r="A346" s="8" t="s">
         <v>323</v>
       </c>
@@ -10462,14 +8492,8 @@
       <c r="F346" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G346" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H346" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" ht="21">
+    </row>
+    <row r="347" spans="1:6" ht="21">
       <c r="A347" s="8" t="s">
         <v>323</v>
       </c>
@@ -10488,14 +8512,8 @@
       <c r="F347" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G347" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H347" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" ht="21">
+    </row>
+    <row r="348" spans="1:6" ht="21">
       <c r="A348" s="8" t="s">
         <v>323</v>
       </c>
@@ -10514,14 +8532,8 @@
       <c r="F348" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G348" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H348" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="21">
+    </row>
+    <row r="349" spans="1:6" ht="21">
       <c r="A349" s="8" t="s">
         <v>323</v>
       </c>
@@ -10540,14 +8552,8 @@
       <c r="F349" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G349" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H349" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" ht="21">
+    </row>
+    <row r="350" spans="1:6" ht="21">
       <c r="A350" s="8" t="s">
         <v>323</v>
       </c>
@@ -10566,14 +8572,8 @@
       <c r="F350" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G350" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H350" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" ht="21">
+    </row>
+    <row r="351" spans="1:6" ht="21">
       <c r="A351" s="8" t="s">
         <v>323</v>
       </c>
@@ -10592,14 +8592,8 @@
       <c r="F351" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G351" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H351" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" ht="21">
+    </row>
+    <row r="352" spans="1:6" ht="21">
       <c r="A352" s="8" t="s">
         <v>323</v>
       </c>
@@ -10618,14 +8612,8 @@
       <c r="F352" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G352" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H352" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" ht="21">
+    </row>
+    <row r="353" spans="1:6" ht="21">
       <c r="A353" s="8" t="s">
         <v>323</v>
       </c>
@@ -10644,32 +8632,22 @@
       <c r="F353" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G353" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H353" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="21">
+    </row>
+    <row r="354" spans="1:6" ht="21">
       <c r="B354" s="12"/>
       <c r="C354" s="7"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
-      <c r="G354" s="4"/>
-      <c r="H354" s="4"/>
-    </row>
-    <row r="355" spans="1:8" ht="21">
+    </row>
+    <row r="355" spans="1:6" ht="21">
       <c r="B355" s="12"/>
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
-      <c r="G355" s="4"/>
-      <c r="H355" s="4"/>
-    </row>
-    <row r="356" spans="1:8" ht="21">
+    </row>
+    <row r="356" spans="1:6" ht="21">
       <c r="A356" s="8" t="s">
         <v>342</v>
       </c>
@@ -10688,14 +8666,8 @@
       <c r="F356" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G356" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H356" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="21">
+    </row>
+    <row r="357" spans="1:6" ht="21">
       <c r="A357" s="8" t="s">
         <v>342</v>
       </c>
@@ -10714,14 +8686,8 @@
       <c r="F357" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G357" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H357" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="21">
+    </row>
+    <row r="358" spans="1:6" ht="21">
       <c r="A358" s="8" t="s">
         <v>342</v>
       </c>
@@ -10740,14 +8706,8 @@
       <c r="F358" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G358" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H358" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="21">
+    </row>
+    <row r="359" spans="1:6" ht="21">
       <c r="A359" s="8" t="s">
         <v>342</v>
       </c>
@@ -10766,14 +8726,8 @@
       <c r="F359" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G359" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H359" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" ht="21">
+    </row>
+    <row r="360" spans="1:6" ht="21">
       <c r="A360" s="8" t="s">
         <v>342</v>
       </c>
@@ -10792,14 +8746,8 @@
       <c r="F360" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G360" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H360" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" ht="21">
+    </row>
+    <row r="361" spans="1:6" ht="21">
       <c r="A361" s="8" t="s">
         <v>342</v>
       </c>
@@ -10818,14 +8766,8 @@
       <c r="F361" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G361" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H361" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" ht="21">
+    </row>
+    <row r="362" spans="1:6" ht="21">
       <c r="A362" s="8" t="s">
         <v>342</v>
       </c>
@@ -10844,14 +8786,8 @@
       <c r="F362" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G362" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H362" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="21">
+    </row>
+    <row r="363" spans="1:6" ht="21">
       <c r="A363" s="8" t="s">
         <v>342</v>
       </c>
@@ -10870,14 +8806,8 @@
       <c r="F363" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G363" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H363" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" ht="21">
+    </row>
+    <row r="364" spans="1:6" ht="21">
       <c r="A364" s="8" t="s">
         <v>342</v>
       </c>
@@ -10896,14 +8826,8 @@
       <c r="F364" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G364" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H364" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="21">
+    </row>
+    <row r="365" spans="1:6" ht="21">
       <c r="A365" s="8" t="s">
         <v>342</v>
       </c>
@@ -10922,14 +8846,8 @@
       <c r="F365" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G365" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H365" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="21">
+    </row>
+    <row r="366" spans="1:6" ht="21">
       <c r="A366" s="8" t="s">
         <v>342</v>
       </c>
@@ -10948,14 +8866,8 @@
       <c r="F366" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G366" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H366" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="21">
+    </row>
+    <row r="367" spans="1:6" ht="21">
       <c r="A367" s="8" t="s">
         <v>342</v>
       </c>
@@ -10974,14 +8886,8 @@
       <c r="F367" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G367" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H367" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" ht="21">
+    </row>
+    <row r="368" spans="1:6" ht="21">
       <c r="A368" s="8" t="s">
         <v>342</v>
       </c>
@@ -11000,14 +8906,8 @@
       <c r="F368" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G368" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H368" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="21">
+    </row>
+    <row r="369" spans="1:6" ht="21">
       <c r="A369" s="8" t="s">
         <v>342</v>
       </c>
@@ -11026,14 +8926,8 @@
       <c r="F369" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G369" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H369" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="21">
+    </row>
+    <row r="370" spans="1:6" ht="21">
       <c r="A370" s="8" t="s">
         <v>342</v>
       </c>
@@ -11052,14 +8946,8 @@
       <c r="F370" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G370" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H370" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="21">
+    </row>
+    <row r="371" spans="1:6" ht="21">
       <c r="A371" s="8" t="s">
         <v>342</v>
       </c>
@@ -11078,14 +8966,8 @@
       <c r="F371" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G371" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H371" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" ht="21">
+    </row>
+    <row r="372" spans="1:6" ht="21">
       <c r="A372" s="8" t="s">
         <v>342</v>
       </c>
@@ -11104,14 +8986,8 @@
       <c r="F372" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G372" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H372" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="21">
+    </row>
+    <row r="373" spans="1:6" ht="21">
       <c r="A373" s="8" t="s">
         <v>342</v>
       </c>
@@ -11130,14 +9006,8 @@
       <c r="F373" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G373" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H373" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" ht="21">
+    </row>
+    <row r="374" spans="1:6" ht="21">
       <c r="A374" s="8" t="s">
         <v>342</v>
       </c>
@@ -11156,14 +9026,8 @@
       <c r="F374" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G374" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H374" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="21">
+    </row>
+    <row r="375" spans="1:6" ht="21">
       <c r="A375" s="8" t="s">
         <v>342</v>
       </c>
@@ -11182,14 +9046,8 @@
       <c r="F375" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G375" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H375" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" ht="21">
+    </row>
+    <row r="376" spans="1:6" ht="21">
       <c r="A376" s="8" t="s">
         <v>342</v>
       </c>
@@ -11208,14 +9066,8 @@
       <c r="F376" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G376" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H376" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" ht="21">
+    </row>
+    <row r="377" spans="1:6" ht="21">
       <c r="A377" s="8" t="s">
         <v>342</v>
       </c>
@@ -11234,14 +9086,8 @@
       <c r="F377" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G377" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H377" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" ht="21">
+    </row>
+    <row r="378" spans="1:6" ht="21">
       <c r="A378" s="8" t="s">
         <v>342</v>
       </c>
@@ -11260,14 +9106,8 @@
       <c r="F378" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G378" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H378" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" ht="21">
+    </row>
+    <row r="379" spans="1:6" ht="21">
       <c r="A379" s="8" t="s">
         <v>342</v>
       </c>
@@ -11286,14 +9126,8 @@
       <c r="F379" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G379" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H379" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" ht="21">
+    </row>
+    <row r="380" spans="1:6" ht="21">
       <c r="A380" s="8" t="s">
         <v>342</v>
       </c>
@@ -11312,14 +9146,8 @@
       <c r="F380" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G380" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H380" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" ht="21">
+    </row>
+    <row r="381" spans="1:6" ht="21">
       <c r="A381" s="8" t="s">
         <v>342</v>
       </c>
@@ -11338,14 +9166,8 @@
       <c r="F381" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G381" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H381" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" ht="21">
+    </row>
+    <row r="382" spans="1:6" ht="21">
       <c r="A382" s="8" t="s">
         <v>342</v>
       </c>
@@ -11364,14 +9186,8 @@
       <c r="F382" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G382" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H382" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" ht="21">
+    </row>
+    <row r="383" spans="1:6" ht="21">
       <c r="A383" s="8" t="s">
         <v>342</v>
       </c>
@@ -11390,14 +9206,8 @@
       <c r="F383" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G383" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H383" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" ht="21">
+    </row>
+    <row r="384" spans="1:6" ht="21">
       <c r="A384" s="8" t="s">
         <v>342</v>
       </c>
@@ -11416,14 +9226,8 @@
       <c r="F384" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G384" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H384" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" ht="21">
+    </row>
+    <row r="385" spans="1:6" ht="21">
       <c r="A385" s="8" t="s">
         <v>342</v>
       </c>
@@ -11442,14 +9246,8 @@
       <c r="F385" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G385" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H385" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="21">
+    </row>
+    <row r="386" spans="1:6" ht="21">
       <c r="A386" s="8" t="s">
         <v>342</v>
       </c>
@@ -11468,14 +9266,8 @@
       <c r="F386" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G386" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H386" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="21">
+    </row>
+    <row r="387" spans="1:6" ht="21">
       <c r="A387" s="8" t="s">
         <v>342</v>
       </c>
@@ -11494,14 +9286,8 @@
       <c r="F387" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G387" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H387" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="21">
+    </row>
+    <row r="388" spans="1:6" ht="21">
       <c r="A388" s="8" t="s">
         <v>342</v>
       </c>
@@ -11520,14 +9306,8 @@
       <c r="F388" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G388" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H388" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="21">
+    </row>
+    <row r="389" spans="1:6" ht="21">
       <c r="A389" s="8" t="s">
         <v>342</v>
       </c>
@@ -11546,14 +9326,8 @@
       <c r="F389" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G389" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H389" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" ht="21">
+    </row>
+    <row r="390" spans="1:6" ht="21">
       <c r="A390" s="8" t="s">
         <v>342</v>
       </c>
@@ -11572,14 +9346,8 @@
       <c r="F390" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G390" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H390" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" ht="21">
+    </row>
+    <row r="391" spans="1:6" ht="21">
       <c r="A391" s="8" t="s">
         <v>342</v>
       </c>
@@ -11598,14 +9366,8 @@
       <c r="F391" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G391" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H391" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" ht="21">
+    </row>
+    <row r="392" spans="1:6" ht="21">
       <c r="A392" s="8" t="s">
         <v>342</v>
       </c>
@@ -11624,14 +9386,8 @@
       <c r="F392" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G392" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H392" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" ht="21">
+    </row>
+    <row r="393" spans="1:6" ht="21">
       <c r="A393" s="8" t="s">
         <v>342</v>
       </c>
@@ -11650,14 +9406,8 @@
       <c r="F393" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G393" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H393" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" ht="21">
+    </row>
+    <row r="394" spans="1:6" ht="21">
       <c r="A394" s="8" t="s">
         <v>342</v>
       </c>
@@ -11676,14 +9426,8 @@
       <c r="F394" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G394" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H394" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" ht="21">
+    </row>
+    <row r="395" spans="1:6" ht="21">
       <c r="A395" s="8" t="s">
         <v>342</v>
       </c>
@@ -11702,14 +9446,8 @@
       <c r="F395" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G395" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H395" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" ht="21">
+    </row>
+    <row r="396" spans="1:6" ht="21">
       <c r="A396" s="8" t="s">
         <v>342</v>
       </c>
@@ -11728,14 +9466,8 @@
       <c r="F396" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G396" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H396" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" ht="21">
+    </row>
+    <row r="397" spans="1:6" ht="21">
       <c r="A397" s="8" t="s">
         <v>342</v>
       </c>
@@ -11754,14 +9486,8 @@
       <c r="F397" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G397" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H397" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" ht="21">
+    </row>
+    <row r="398" spans="1:6" ht="21">
       <c r="A398" s="8" t="s">
         <v>342</v>
       </c>
@@ -11780,14 +9506,8 @@
       <c r="F398" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G398" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H398" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" ht="21">
+    </row>
+    <row r="399" spans="1:6" ht="21">
       <c r="A399" s="8" t="s">
         <v>342</v>
       </c>
@@ -11806,30 +9526,20 @@
       <c r="F399" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G399" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H399" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" ht="21">
+    </row>
+    <row r="400" spans="1:6" ht="21">
       <c r="C400" s="7"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
-      <c r="G400" s="4"/>
-      <c r="H400" s="4"/>
-    </row>
-    <row r="401" spans="1:8" ht="21">
+    </row>
+    <row r="401" spans="1:6" ht="21">
       <c r="C401" s="7"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
-      <c r="G401" s="4"/>
-      <c r="H401" s="4"/>
-    </row>
-    <row r="402" spans="1:8" ht="21">
+    </row>
+    <row r="402" spans="1:6" ht="21">
       <c r="A402" s="8" t="s">
         <v>386</v>
       </c>
@@ -11848,14 +9558,8 @@
       <c r="F402" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G402" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H402" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" ht="21">
+    </row>
+    <row r="403" spans="1:6" ht="21">
       <c r="A403" s="8" t="s">
         <v>386</v>
       </c>
@@ -11874,14 +9578,8 @@
       <c r="F403" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G403" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H403" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" ht="21">
+    </row>
+    <row r="404" spans="1:6" ht="21">
       <c r="A404" s="8" t="s">
         <v>386</v>
       </c>
@@ -11900,14 +9598,8 @@
       <c r="F404" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G404" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H404" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" ht="21">
+    </row>
+    <row r="405" spans="1:6" ht="21">
       <c r="A405" s="8" t="s">
         <v>386</v>
       </c>
@@ -11926,14 +9618,8 @@
       <c r="F405" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G405" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H405" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" ht="21">
+    </row>
+    <row r="406" spans="1:6" ht="21">
       <c r="A406" s="8" t="s">
         <v>386</v>
       </c>
@@ -11952,14 +9638,8 @@
       <c r="F406" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G406" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H406" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="21">
+    </row>
+    <row r="407" spans="1:6" ht="21">
       <c r="A407" s="8" t="s">
         <v>386</v>
       </c>
@@ -11978,30 +9658,20 @@
       <c r="F407" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G407" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H407" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" ht="21">
+    </row>
+    <row r="408" spans="1:6" ht="21">
       <c r="C408" s="7"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
-      <c r="G408" s="4"/>
-      <c r="H408" s="4"/>
-    </row>
-    <row r="409" spans="1:8" ht="21">
+    </row>
+    <row r="409" spans="1:6" ht="21">
       <c r="C409" s="7"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
-      <c r="G409" s="4"/>
-      <c r="H409" s="4"/>
-    </row>
-    <row r="410" spans="1:8" ht="21">
+    </row>
+    <row r="410" spans="1:6" ht="21">
       <c r="A410" s="5" t="s">
         <v>392</v>
       </c>
@@ -12014,16 +9684,14 @@
       <c r="D410" s="4">
         <v>1</v>
       </c>
-      <c r="E410" s="4"/>
-      <c r="F410" s="4"/>
-      <c r="G410" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H410" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" ht="21">
+      <c r="E410" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F410" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="21">
       <c r="A411" s="5" t="s">
         <v>392</v>
       </c>
@@ -12036,20 +9704,14 @@
       <c r="D411" s="4">
         <v>1</v>
       </c>
-      <c r="E411" s="4">
-        <v>1</v>
-      </c>
-      <c r="F411" s="4">
-        <v>1</v>
-      </c>
-      <c r="G411" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H411" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" ht="21">
+      <c r="E411" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F411" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="21">
       <c r="A412" s="5" t="s">
         <v>392</v>
       </c>
@@ -12068,14 +9730,8 @@
       <c r="F412" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G412" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H412" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" ht="21">
+    </row>
+    <row r="413" spans="1:6" ht="21">
       <c r="A413" s="5" t="s">
         <v>392</v>
       </c>
@@ -12094,14 +9750,8 @@
       <c r="F413" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G413" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H413" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" ht="21">
+    </row>
+    <row r="414" spans="1:6" ht="21">
       <c r="A414" s="5" t="s">
         <v>392</v>
       </c>
@@ -12120,14 +9770,8 @@
       <c r="F414" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G414" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H414" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" ht="21">
+    </row>
+    <row r="415" spans="1:6" ht="21">
       <c r="A415" s="5" t="s">
         <v>392</v>
       </c>
@@ -12140,20 +9784,14 @@
       <c r="D415" s="4">
         <v>1</v>
       </c>
-      <c r="E415" s="4">
-        <v>1</v>
+      <c r="E415" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F415" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G415" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H415" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" ht="21">
+    </row>
+    <row r="416" spans="1:6" ht="21">
       <c r="A416" s="5" t="s">
         <v>392</v>
       </c>
@@ -12172,14 +9810,8 @@
       <c r="F416" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G416" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H416" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" ht="21">
+    </row>
+    <row r="417" spans="1:6" ht="21">
       <c r="A417" s="5" t="s">
         <v>392</v>
       </c>
@@ -12192,20 +9824,14 @@
       <c r="D417" s="4">
         <v>1</v>
       </c>
-      <c r="E417" s="4">
-        <v>1</v>
+      <c r="E417" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F417" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G417" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H417" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" ht="21">
+    </row>
+    <row r="418" spans="1:6" ht="21">
       <c r="A418" s="5" t="s">
         <v>392</v>
       </c>
@@ -12224,14 +9850,8 @@
       <c r="F418" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G418" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H418" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" ht="21">
+    </row>
+    <row r="419" spans="1:6" ht="21">
       <c r="A419" s="5" t="s">
         <v>392</v>
       </c>
@@ -12250,14 +9870,8 @@
       <c r="F419" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G419" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H419" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" ht="21">
+    </row>
+    <row r="420" spans="1:6" ht="21">
       <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
@@ -12276,14 +9890,8 @@
       <c r="F420" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G420" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H420" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" ht="21">
+    </row>
+    <row r="421" spans="1:6" ht="21">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
@@ -12302,14 +9910,8 @@
       <c r="F421" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G421" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H421" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="21">
+    </row>
+    <row r="422" spans="1:6" ht="21">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
@@ -12328,14 +9930,8 @@
       <c r="F422" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G422" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H422" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" ht="21">
+    </row>
+    <row r="423" spans="1:6" ht="21">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
@@ -12348,20 +9944,14 @@
       <c r="D423" s="4">
         <v>1</v>
       </c>
-      <c r="E423" s="4">
-        <v>1</v>
-      </c>
-      <c r="F423" s="4">
-        <v>1</v>
-      </c>
-      <c r="G423" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H423" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" ht="21">
+      <c r="E423" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F423" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="21">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
@@ -12380,14 +9970,8 @@
       <c r="F424" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G424" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H424" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" ht="21">
+    </row>
+    <row r="425" spans="1:6" ht="21">
       <c r="A425" s="5" t="s">
         <v>392</v>
       </c>
@@ -12406,14 +9990,8 @@
       <c r="F425" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G425" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H425" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" ht="21">
+    </row>
+    <row r="426" spans="1:6" ht="21">
       <c r="A426" s="5" t="s">
         <v>392</v>
       </c>
@@ -12432,14 +10010,8 @@
       <c r="F426" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G426" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H426" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" ht="21">
+    </row>
+    <row r="427" spans="1:6" ht="21">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
@@ -12458,14 +10030,8 @@
       <c r="F427" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G427" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H427" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" ht="21">
+    </row>
+    <row r="428" spans="1:6" ht="21">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
@@ -12484,14 +10050,8 @@
       <c r="F428" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G428" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H428" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" ht="21">
+    </row>
+    <row r="429" spans="1:6" ht="21">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
@@ -12510,14 +10070,8 @@
       <c r="F429" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G429" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H429" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" ht="21">
+    </row>
+    <row r="430" spans="1:6" ht="21">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
@@ -12536,14 +10090,8 @@
       <c r="F430" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G430" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H430" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" ht="21">
+    </row>
+    <row r="431" spans="1:6" ht="21">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
@@ -12562,14 +10110,8 @@
       <c r="F431" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G431" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H431" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" ht="21">
+    </row>
+    <row r="432" spans="1:6" ht="21">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
@@ -12582,16 +10124,10 @@
       <c r="D432" s="4">
         <v>1</v>
       </c>
-      <c r="E432" s="4">
-        <v>1</v>
-      </c>
-      <c r="F432" s="4">
-        <v>1</v>
-      </c>
-      <c r="G432" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H432" s="4" t="s">
+      <c r="E432" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F432" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12614,12 +10150,6 @@
       <c r="F433" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G433" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H433" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="434" spans="1:9" ht="21">
       <c r="A434" s="5" t="s">
@@ -12640,12 +10170,6 @@
       <c r="F434" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G434" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H434" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="435" spans="1:9" ht="21">
       <c r="A435" s="5" t="s">
@@ -12666,12 +10190,6 @@
       <c r="F435" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G435" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H435" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="436" spans="1:9" ht="21">
       <c r="A436" s="5" t="s">
@@ -12692,12 +10210,6 @@
       <c r="F436" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G436" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H436" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="437" spans="1:9" ht="21">
       <c r="A437" s="5" t="s">
@@ -12718,12 +10230,6 @@
       <c r="F437" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G437" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H437" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="438" spans="1:9" ht="21">
       <c r="A438" s="5" t="s">
@@ -12744,12 +10250,6 @@
       <c r="F438" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G438" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H438" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="439" spans="1:9" ht="21">
       <c r="A439" s="5" t="s">
@@ -12770,12 +10270,6 @@
       <c r="F439" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G439" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H439" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="440" spans="1:9" ht="21">
       <c r="A440" s="5" t="s">
@@ -12796,12 +10290,6 @@
       <c r="F440" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G440" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H440" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="441" spans="1:9" ht="21">
       <c r="A441" s="5" t="s">
@@ -12816,16 +10304,10 @@
       <c r="D441" s="4">
         <v>1</v>
       </c>
-      <c r="E441" s="4">
-        <v>1</v>
-      </c>
-      <c r="F441" s="4">
-        <v>1</v>
-      </c>
-      <c r="G441" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H441" s="4" t="s">
+      <c r="E441" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F441" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I441" s="4"/>
@@ -12849,12 +10331,6 @@
       <c r="F442" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G442" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H442" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="443" spans="1:9" ht="21">
       <c r="A443" s="5" t="s">
@@ -12875,12 +10351,6 @@
       <c r="F443" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G443" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H443" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="444" spans="1:9" ht="21">
       <c r="A444" s="5" t="s">
@@ -12901,12 +10371,6 @@
       <c r="F444" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G444" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H444" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="445" spans="1:9" ht="21">
       <c r="A445" s="5" t="s">
@@ -12927,12 +10391,6 @@
       <c r="F445" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G445" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H445" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="446" spans="1:9" ht="21">
       <c r="A446" s="5" t="s">
@@ -12953,12 +10411,6 @@
       <c r="F446" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G446" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H446" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="447" spans="1:9" ht="21">
       <c r="A447" s="5" t="s">
@@ -12979,12 +10431,6 @@
       <c r="F447" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G447" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H447" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="448" spans="1:9" ht="21">
       <c r="A448" s="5" t="s">
@@ -13005,14 +10451,8 @@
       <c r="F448" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G448" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H448" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" ht="21">
+    </row>
+    <row r="449" spans="1:6" ht="21">
       <c r="A449" s="5" t="s">
         <v>392</v>
       </c>
@@ -13025,20 +10465,14 @@
       <c r="D449" s="4">
         <v>1</v>
       </c>
-      <c r="E449" s="4">
-        <v>1</v>
-      </c>
-      <c r="F449" s="4">
-        <v>1</v>
-      </c>
-      <c r="G449" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H449" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" ht="21">
+      <c r="E449" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F449" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="21">
       <c r="A450" s="5" t="s">
         <v>392</v>
       </c>
@@ -13057,14 +10491,8 @@
       <c r="F450" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G450" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H450" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" ht="21">
+    </row>
+    <row r="451" spans="1:6" ht="21">
       <c r="A451" s="5" t="s">
         <v>392</v>
       </c>
@@ -13083,14 +10511,8 @@
       <c r="F451" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G451" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H451" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" ht="21">
+    </row>
+    <row r="452" spans="1:6" ht="21">
       <c r="A452" s="5" t="s">
         <v>392</v>
       </c>
@@ -13109,14 +10531,8 @@
       <c r="F452" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G452" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H452" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" ht="21">
+    </row>
+    <row r="453" spans="1:6" ht="21">
       <c r="A453" s="5" t="s">
         <v>392</v>
       </c>
@@ -13135,14 +10551,8 @@
       <c r="F453" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G453" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H453" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" ht="21">
+    </row>
+    <row r="454" spans="1:6" ht="21">
       <c r="A454" s="5" t="s">
         <v>392</v>
       </c>
@@ -13161,14 +10571,8 @@
       <c r="F454" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G454" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H454" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" ht="21">
+    </row>
+    <row r="455" spans="1:6" ht="21">
       <c r="A455" s="5" t="s">
         <v>392</v>
       </c>
@@ -13187,14 +10591,8 @@
       <c r="F455" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G455" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H455" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" ht="21">
+    </row>
+    <row r="456" spans="1:6" ht="21">
       <c r="A456" s="5" t="s">
         <v>392</v>
       </c>
@@ -13213,14 +10611,8 @@
       <c r="F456" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G456" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H456" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" ht="21">
+    </row>
+    <row r="457" spans="1:6" ht="21">
       <c r="A457" s="5" t="s">
         <v>392</v>
       </c>
@@ -13239,14 +10631,8 @@
       <c r="F457" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G457" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H457" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" ht="21">
+    </row>
+    <row r="458" spans="1:6" ht="21">
       <c r="A458" s="5" t="s">
         <v>392</v>
       </c>
@@ -13265,14 +10651,8 @@
       <c r="F458" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G458" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H458" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="21">
+    </row>
+    <row r="459" spans="1:6" ht="21">
       <c r="A459" s="5" t="s">
         <v>392</v>
       </c>
@@ -13291,14 +10671,8 @@
       <c r="F459" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G459" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H459" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" ht="21">
+    </row>
+    <row r="460" spans="1:6" ht="21">
       <c r="A460" s="5" t="s">
         <v>392</v>
       </c>
@@ -13311,20 +10685,14 @@
       <c r="D460" s="4">
         <v>1</v>
       </c>
-      <c r="E460" s="4">
-        <v>1</v>
-      </c>
-      <c r="F460" s="4">
-        <v>1</v>
-      </c>
-      <c r="G460" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H460" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" ht="21">
+      <c r="E460" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F460" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="21">
       <c r="A461" s="5" t="s">
         <v>392</v>
       </c>
@@ -13343,14 +10711,8 @@
       <c r="F461" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G461" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H461" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" ht="21">
+    </row>
+    <row r="462" spans="1:6" ht="21">
       <c r="A462" s="5" t="s">
         <v>392</v>
       </c>
@@ -13369,14 +10731,8 @@
       <c r="F462" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G462" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H462" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" ht="21">
+    </row>
+    <row r="463" spans="1:6" ht="21">
       <c r="A463" s="5" t="s">
         <v>392</v>
       </c>
@@ -13389,20 +10745,14 @@
       <c r="D463" s="4">
         <v>1</v>
       </c>
-      <c r="E463" s="4">
-        <v>1</v>
-      </c>
-      <c r="F463" s="4">
-        <v>1</v>
-      </c>
-      <c r="G463" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H463" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" ht="21">
+      <c r="E463" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F463" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="21">
       <c r="A464" s="5" t="s">
         <v>392</v>
       </c>
@@ -13421,14 +10771,8 @@
       <c r="F464" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G464" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H464" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" ht="21">
+    </row>
+    <row r="465" spans="1:6" ht="21">
       <c r="A465" s="5" t="s">
         <v>392</v>
       </c>
@@ -13447,14 +10791,8 @@
       <c r="F465" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G465" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H465" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" ht="21">
+    </row>
+    <row r="466" spans="1:6" ht="21">
       <c r="A466" s="5" t="s">
         <v>392</v>
       </c>
@@ -13473,14 +10811,8 @@
       <c r="F466" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G466" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H466" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8" ht="21">
+    </row>
+    <row r="467" spans="1:6" ht="21">
       <c r="A467" s="5" t="s">
         <v>392</v>
       </c>
@@ -13499,14 +10831,8 @@
       <c r="F467" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G467" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H467" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" ht="21">
+    </row>
+    <row r="468" spans="1:6" ht="21">
       <c r="A468" s="5" t="s">
         <v>392</v>
       </c>
@@ -13525,14 +10851,8 @@
       <c r="F468" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G468" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H468" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" ht="21">
+    </row>
+    <row r="469" spans="1:6" ht="21">
       <c r="A469" s="5" t="s">
         <v>392</v>
       </c>
@@ -13551,31 +10871,21 @@
       <c r="F469" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G469" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H469" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" ht="21">
+    </row>
+    <row r="470" spans="1:6" ht="21">
       <c r="C470" s="7"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
-      <c r="G470" s="4"/>
-      <c r="H470" s="4"/>
-    </row>
-    <row r="471" spans="1:8" ht="21">
+    </row>
+    <row r="471" spans="1:6" ht="21">
       <c r="A471" s="8"/>
       <c r="C471" s="7"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
-      <c r="G471" s="4"/>
-      <c r="H471" s="4"/>
-    </row>
-    <row r="472" spans="1:8" ht="21">
+    </row>
+    <row r="472" spans="1:6" ht="21">
       <c r="A472" s="5" t="s">
         <v>452</v>
       </c>
@@ -13594,14 +10904,8 @@
       <c r="F472" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G472" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H472" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" ht="21">
+    </row>
+    <row r="473" spans="1:6" ht="21">
       <c r="A473" s="5" t="s">
         <v>452</v>
       </c>
@@ -13620,14 +10924,8 @@
       <c r="F473" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G473" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H473" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" ht="21">
+    </row>
+    <row r="474" spans="1:6" ht="21">
       <c r="A474" s="5" t="s">
         <v>452</v>
       </c>
@@ -13646,14 +10944,8 @@
       <c r="F474" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G474" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H474" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8" ht="21">
+    </row>
+    <row r="475" spans="1:6" ht="21">
       <c r="A475" s="5" t="s">
         <v>452</v>
       </c>
@@ -13672,14 +10964,8 @@
       <c r="F475" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G475" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H475" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8" ht="21">
+    </row>
+    <row r="476" spans="1:6" ht="21">
       <c r="A476" s="5" t="s">
         <v>452</v>
       </c>
@@ -13698,14 +10984,8 @@
       <c r="F476" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G476" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H476" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8" ht="21">
+    </row>
+    <row r="477" spans="1:6" ht="21">
       <c r="A477" s="5" t="s">
         <v>452</v>
       </c>
@@ -13724,14 +11004,8 @@
       <c r="F477" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G477" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H477" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" ht="21">
+    </row>
+    <row r="478" spans="1:6" ht="21">
       <c r="A478" s="5" t="s">
         <v>452</v>
       </c>
@@ -13750,14 +11024,8 @@
       <c r="F478" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G478" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H478" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" ht="21">
+    </row>
+    <row r="479" spans="1:6" ht="21">
       <c r="A479" s="5" t="s">
         <v>452</v>
       </c>
@@ -13776,14 +11044,8 @@
       <c r="F479" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G479" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H479" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" ht="21">
+    </row>
+    <row r="480" spans="1:6" ht="21">
       <c r="A480" s="5" t="s">
         <v>452</v>
       </c>
@@ -13802,14 +11064,8 @@
       <c r="F480" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G480" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H480" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" ht="21">
+    </row>
+    <row r="481" spans="1:6" ht="21">
       <c r="A481" s="5" t="s">
         <v>452</v>
       </c>
@@ -13826,12 +11082,6 @@
         <v>3</v>
       </c>
       <c r="F481" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G481" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H481" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C41706E-7DD2-4E0F-B6DF-CCB629EB8555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658AF7DA-5448-46A1-9687-293C24B2132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1916,7 +1916,7 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHI\jupyter notebook\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658AF7DA-5448-46A1-9687-293C24B2132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9A0893-301F-4E5A-A000-D778B61B73FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1916,7 +1917,7 @@
   <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -2034,6 +2035,9 @@
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="21">
       <c r="A9" s="5" t="s">
@@ -2054,6 +2058,9 @@
       <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="21">
       <c r="A10" s="5" t="s">
@@ -2073,6 +2080,9 @@
       </c>
       <c r="F10" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21">
